--- a/TD/data_td_2.xlsx
+++ b/TD/data_td_2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/TD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F0F61-25AC-7B49-A09A-07F91F724337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A714F-2115-B64D-BDD3-DE2CEF7BBAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>1978</t>
   </si>
@@ -220,14 +220,45 @@
   </si>
   <si>
     <t>1.111 – Net fixed assets by institutional sector at current prices, unit is Billions of euros</t>
+  </si>
+  <si>
+    <t>wL/Y</t>
+  </si>
+  <si>
+    <t>rK/Y</t>
+  </si>
+  <si>
+    <t>gY</t>
+  </si>
+  <si>
+    <t>gK</t>
+  </si>
+  <si>
+    <t>gL</t>
+  </si>
+  <si>
+    <t>lnY</t>
+  </si>
+  <si>
+    <t>lnL</t>
+  </si>
+  <si>
+    <t>lnK</t>
+  </si>
+  <si>
+    <t>gA - def</t>
+  </si>
+  <si>
+    <t>gA - aprox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -277,10 +308,65 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -290,19 +376,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,6 +421,1514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>gA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gA - def</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="1">
+                  <c:v>8.4334312687440141E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8063874158663324E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0059653901803418E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10492834151690317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9405920292577467E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4742703771950461E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2367552033418759E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2146056479787498E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5322476344738467E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3773876193141293E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6242422340501563E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.769594214940849E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5621635898764259E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.631129319320331E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8076657933061413E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1379564086245865E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6644362659140752E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3198544941737984E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7955384744342877E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6696523067680188E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.162323121728957E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6254124611707175E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5827750786774768E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3605228869878097E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9960920157281616E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3945049797816729E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0749476436710745E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7707285944693056E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.798533313693609E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9592501509900271E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.7670708473596095E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6512000922094788E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3018718356996558E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2690456340635959E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7020635281872911E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8907294175922472E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8734242472484106E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1142043725551541E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1212193210040782E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2262724474097937E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.466501307071146E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.1509258591009322E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6532089025730088E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4936731276129923E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F82B-8041-B5C1-15E28484369D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gA - aprox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="1">
+                  <c:v>7.9211330476353356E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3853941347616428E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5896030621837363E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7466406590044991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5183577270511837E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2082511133057537E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0517739681994904E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0037567728142343E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4689502139456979E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1344803156463642E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4118823684313822E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6948507016643919E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5486858429360331E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5912446328046582E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9073232884663939E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0965333540799908E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6313075183656961E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3020103966597908E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.761116881086993E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5902135569244929E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1339825144863987E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5294011710392566E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5484972891951793E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3457040244357021E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1213406960590241E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3521349137965268E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0777000548280083E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7416500345937273E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7638774151227447E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9577734521877521E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.7994497430218427E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6306326240612422E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2843661399382617E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.272755824806072E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.6623411036346577E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8008558679693941E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8494171979903627E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0802599583654965E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1029972755541228E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2065414742665372E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4375537493224575E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.2542224502026594E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4820354188837208E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4612333563757306E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F82B-8041-B5C1-15E28484369D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1350078672"/>
+        <c:axId val="1080254016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1350078672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080254016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1080254016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350078672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B071EA-15E7-26C2-CEAE-1511C17A6520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,30 +2248,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3364EC-9B22-8241-B65C-D4060D71316A}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
     <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -670,41 +2281,67 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -722,11 +2359,29 @@
       <c r="F3" s="2">
         <v>113.18600000000001</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="13">
+        <f>E3/B3</f>
+        <v>0.5490698908538072</v>
+      </c>
+      <c r="H3" s="12">
+        <f>F3/B3</f>
+        <v>0.32467335025744731</v>
+      </c>
+      <c r="M3">
+        <f>LN(B3)</f>
+        <v>5.8539681614200854</v>
+      </c>
+      <c r="N3" s="14">
+        <f>LN(C3)</f>
+        <v>10.016217844555859</v>
+      </c>
+      <c r="O3" s="14">
+        <f>LN(D3)</f>
+        <v>6.8564609319624532</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -744,19 +2399,61 @@
       <c r="F4" s="2">
         <v>128.12200000000001</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G47" si="0">E4/B4</f>
+        <v>0.54593807287612062</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H47" si="1">F4/B4</f>
+        <v>0.32174480801587108</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(B4/B3)-1</f>
+        <v>0.14226295483556339</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(C4/C3)-1</f>
+        <v>6.7451064476069522E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <f>(D4/D3)-1</f>
+        <v>0.16860017747387102</v>
+      </c>
+      <c r="L4" s="5">
+        <f>I4-(G4*J4)-(H4*K4)</f>
+        <v>8.4334312687440141E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M47" si="2">LN(B4)</f>
+        <v>5.9869795043233083</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N47" si="3">LN(C4)</f>
+        <v>10.02294030455109</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" ref="O4:O47" si="4">LN(D4)</f>
+        <v>7.0122675349694346</v>
+      </c>
+      <c r="P4" s="4">
+        <f>M4-M3</f>
+        <v>0.13301134290322292</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" ref="Q4:R4" si="5">N4-N3</f>
+        <v>6.7224599952311337E-3</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.15580660300698135</v>
+      </c>
+      <c r="S4" s="4">
+        <f>P4-(G4*Q4)-(H4*R4)</f>
+        <v>7.9211330476353356E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -774,19 +2471,61 @@
       <c r="F5" s="2">
         <v>144.35599999999999</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55324390729796136</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.31953427629103304</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I47" si="6">(B5/B4)-1</f>
+        <v>0.13450189598453077</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J47" si="7">(C5/C4)-1</f>
+        <v>4.579014624449762E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K47" si="8">(D5/D4)-1</f>
+        <v>0.16869773881273931</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L47" si="9">I5-(G5*J5)-(H5*K5)</f>
+        <v>7.8063874158663324E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>6.1131732007668376</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" si="3"/>
+        <v>10.027508867381874</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="4"/>
+        <v>7.1681576201360873</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5:P47" si="10">M5-M4</f>
+        <v>0.12619369644352929</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q47" si="11">N5-N4</f>
+        <v>4.5685628307836623E-3</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R47" si="12">O5-O4</f>
+        <v>0.1558900851666527</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S47" si="13">P5-(G5*Q5)-(H5*R5)</f>
+        <v>7.3853941347616428E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -804,19 +2543,61 @@
       <c r="F6" s="2">
         <v>161.6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55647911213074897</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.31687206486465286</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.12885981804900726</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.0202819688349685E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="8"/>
+        <v>0.15579767112771803</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="9"/>
+        <v>8.0059653901803418E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>6.2343813135211308</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="3"/>
+        <v>10.02648806457109</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="4"/>
+        <v>7.3129483500915926</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="10"/>
+        <v>0.12120811275429322</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.0208028107836498E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="12"/>
+        <v>0.14479072995550535</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="13"/>
+        <v>7.5896030621837363E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
@@ -834,19 +2615,61 @@
       <c r="F7" s="2">
         <v>184.82</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55560087305393102</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.31539841191558199</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.14903183426963551</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.6041551528226403E-3</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13524678712609828</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10492834151690317</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>6.3733010180697711</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="3"/>
+        <v>10.02908883478721</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="4"/>
+        <v>7.4397984109809769</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13891970454864033</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="11"/>
+        <v>2.6007702161194857E-3</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.12685006088938433</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="13"/>
+        <v>9.7466406590044991E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
@@ -864,19 +2687,61 @@
       <c r="F8" s="2">
         <v>209.51300000000001</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54986994859433802</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.32207399709767082</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1101095754357162</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.0671793831525944E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="8"/>
+        <v>9.7153030973204491E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="9"/>
+        <v>7.9405920292577467E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>6.4777597451306033</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="3"/>
+        <v>10.028021085562688</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="4"/>
+        <v>7.5325170820647021</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="10"/>
+        <v>0.10445872706083215</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.0677492245214637E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="12"/>
+        <v>9.2718671083725113E-2</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="13"/>
+        <v>7.5183577270511837E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -894,19 +2759,61 @@
       <c r="F9" s="2">
         <v>232.238</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54331075060464196</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.32846979618969491</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="6"/>
+        <v>8.6882332685638497E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.1561865409406327E-3</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5931001214797567E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="9"/>
+        <v>6.4742703771950461E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>6.5610730978110361</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="3"/>
+        <v>10.022851560019914</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="4"/>
+        <v>7.6057034164831236</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3313352680432828E-2</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="11"/>
+        <v>-5.1695255427741671E-3</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="12"/>
+        <v>7.3186334418421595E-2</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="13"/>
+        <v>6.2082511133057537E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2">
@@ -924,19 +2831,61 @@
       <c r="F10" s="2">
         <v>253.51900000000001</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53660802783199968</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.33459506472972422</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1650425017325992E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.138838105042562E-3</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1060645642843747E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="9"/>
+        <v>5.2367552033418759E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>6.6302730112128359</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="3"/>
+        <v>10.020710431333947</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="4"/>
+        <v>7.6649724334285319</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="10"/>
+        <v>6.9199913401799762E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.14112868596672E-3</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="12"/>
+        <v>5.9269016945408204E-2</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0517739681994904E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -954,19 +2903,61 @@
       <c r="F11" s="2">
         <v>285.78800000000001</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52375656153479755</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35083403306669808</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="6"/>
+        <v>7.5106013153154016E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="7"/>
+        <v>4.8516057881302643E-3</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="8"/>
+        <v>5.8201013537279023E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="9"/>
+        <v>5.2146056479787498E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>6.7026922848167914</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="3"/>
+        <v>10.025550306010569</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7215427427096541</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="10"/>
+        <v>7.2419273603955503E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="11"/>
+        <v>4.8398746766213918E-3</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="12"/>
+        <v>5.6570309281122277E-2</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0037567728142343E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
@@ -984,19 +2975,61 @@
       <c r="F12" s="2">
         <v>301.55</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52007808566291625</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35228503369809916</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="6"/>
+        <v>5.0806780293544129E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="7"/>
+        <v>8.8553537052198372E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="8"/>
+        <v>5.9266862196080794E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="9"/>
+        <v>2.5322476344738467E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>6.7522505161314497</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="3"/>
+        <v>10.034366681015603</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7791197721030718</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="10"/>
+        <v>4.9558231314658308E-2</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="11"/>
+        <v>8.8163750050345158E-3</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="12"/>
+        <v>5.7577029393417689E-2</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="13"/>
+        <v>2.4689502139456979E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
@@ -1014,19 +3047,61 @@
       <c r="F13" s="2">
         <v>334.346</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50814999756813284</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36137114076187699</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="6"/>
+        <v>8.0880110936782712E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="7"/>
+        <v>9.7909337357324766E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1241669002623178E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="9"/>
+        <v>5.3773876193141293E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>6.8300261429366245</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="3"/>
+        <v>10.044109994140825</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="4"/>
+        <v>7.8385593805414722</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="10"/>
+        <v>7.7775626805174802E-2</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="11"/>
+        <v>9.7433131252220306E-3</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="12"/>
+        <v>5.9439608438400349E-2</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="13"/>
+        <v>5.1344803156463642E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -1044,19 +3119,61 @@
       <c r="F14" s="2">
         <v>368.12</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50193206240767174</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36918287750433498</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="6"/>
+        <v>7.7718151997103302E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7376345580760955E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1633369445403874E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6242422340501563E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>6.9048721266900897</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="3"/>
+        <v>10.061337097405595</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="4"/>
+        <v>7.8983680172459101</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="10"/>
+        <v>7.4845983753465184E-2</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="11"/>
+        <v>1.7227103264769283E-2</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="12"/>
+        <v>5.9808636704437923E-2</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="13"/>
+        <v>4.4118823684313822E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
@@ -1074,19 +3191,61 @@
       <c r="F15" s="2">
         <v>384.209</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5071615287799488</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36468175096293848</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="6"/>
+        <v>5.6587916611925859E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="7"/>
+        <v>9.0649792056294309E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
+        <v>6.661853982570376E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="9"/>
+        <v>2.769594214940849E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>6.9599168962682185</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="3"/>
+        <v>10.070361236312648</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="4"/>
+        <v>7.9628614184521895</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="10"/>
+        <v>5.5044769578128872E-2</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="11"/>
+        <v>9.0241389070531142E-3</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="12"/>
+        <v>6.4493401206279444E-2</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="13"/>
+        <v>2.6948507016643919E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
@@ -1104,19 +3263,61 @@
       <c r="F16" s="2">
         <v>394.82600000000002</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51099335443182914</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36165997224524943</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6219586045602048E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2681014382979203E-3</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3749286281281616E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5621635898764259E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>6.99549597328856</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" si="3"/>
+        <v>10.072626769491528</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="4"/>
+        <v>8.0152159714727507</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="10"/>
+        <v>3.5579077020341465E-2</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="11"/>
+        <v>2.2655331788801192E-3</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="12"/>
+        <v>5.2354553020561134E-2</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5486858429360331E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
@@ -1134,19 +3335,61 @@
       <c r="F17" s="2">
         <v>411.12200000000001</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5122322793534474</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36350855848407981</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5978583958120591E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="7"/>
+        <v>-6.2822715815871177E-3</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="8"/>
+        <v>3.5446959241911102E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="9"/>
+        <v>2.631129319320331E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>7.0308424450570888</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="3"/>
+        <v>10.066324681403113</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="4"/>
+        <v>8.0500491496501816</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="10"/>
+        <v>3.5346471768528787E-2</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="11"/>
+        <v>-6.3020880884145924E-3</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="12"/>
+        <v>3.4833178177430923E-2</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="13"/>
+        <v>2.5912446328046582E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
@@ -1164,19 +3407,61 @@
       <c r="F18" s="2">
         <v>410.16500000000002</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51550057393318915</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35912632571562164</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="6"/>
+        <v>9.8463018453858187E-3</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.0336960262396611E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="8"/>
+        <v>2.6083704616763015E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="9"/>
+        <v>5.8076657933061413E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>7.0406405879395484</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="3"/>
+        <v>10.055933923711262</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="4"/>
+        <v>8.0757984765181483</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="10"/>
+        <v>9.7981428824596151E-3</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.0390757691851604E-2</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="12"/>
+        <v>2.5749326867966715E-2</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="13"/>
+        <v>5.9073232884663939E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
@@ -1194,19 +3479,61 @@
       <c r="F19" s="2">
         <v>422.08600000000001</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50923451541572051</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35774032157861863</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="6"/>
+        <v>3.3050846715622528E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0571830889172276E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5426237695502119E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="9"/>
+        <v>2.1379564086245865E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>7.073156999242844</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="3"/>
+        <v>10.060978362199576</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="4"/>
+        <v>8.1009068443244896</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="10"/>
+        <v>3.2516411303295634E-2</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="11"/>
+        <v>5.0444384883139293E-3</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="12"/>
+        <v>2.5108367806341292E-2</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="13"/>
+        <v>2.0965333540799908E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2">
@@ -1224,19 +3551,61 @@
       <c r="F20" s="2">
         <v>430.73500000000001</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5107508743935063</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35356196845862958</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="6"/>
+        <v>3.2551126525277807E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="7"/>
+        <v>9.9737734607925344E-3</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0582051562765056E-2</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6644362659140752E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>7.1051895610857239</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="3"/>
+        <v>10.070902725845096</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="4"/>
+        <v>8.13103058556257</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="10"/>
+        <v>3.2032561842879836E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="11"/>
+        <v>9.9243636455206286E-3</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="12"/>
+        <v>3.012374123808037E-2</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6313075183656961E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2">
@@ -1254,19 +3623,61 @@
       <c r="F21" s="2">
         <v>436.54599999999999</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51072934983461971</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34860484912949802</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="6"/>
+        <v>2.7902612961134388E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="7"/>
+        <v>5.6714132857402788E-3</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3870758908866039E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3198544941737984E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>7.1327099891574983</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="3"/>
+        <v>10.076558117215898</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="4"/>
+        <v>8.1643403624526591</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="10"/>
+        <v>2.7520428071774461E-2</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="11"/>
+        <v>5.6553913708015102E-3</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="12"/>
+        <v>3.3309776890089182E-2</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3020103966597908E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2">
@@ -1284,19 +3695,61 @@
       <c r="F22" s="2">
         <v>453.72399999999999</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50757168483040771</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35096849650016976</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="6"/>
+        <v>3.235015563785959E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="7"/>
+        <v>7.7505361873921874E-3</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
+        <v>2.980557596153921E-2</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="9"/>
+        <v>1.7955384744342877E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>7.1645478967669876</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="3"/>
+        <v>10.084278772294791</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="4"/>
+        <v>8.1937103856741764</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="10"/>
+        <v>3.1837907609489235E-2</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="11"/>
+        <v>7.7206550788933015E-3</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="12"/>
+        <v>2.9370023221517272E-2</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="13"/>
+        <v>1.761116881086993E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
@@ -1314,19 +3767,61 @@
       <c r="F23" s="2">
         <v>480.89400000000001</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50378061626042236</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35571819134016225</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5730238084371821E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7468378729140088E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
+        <v>2.8768515821191221E-2</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="9"/>
+        <v>2.6696523067680188E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>7.2092633305672544</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="3"/>
+        <v>10.101596332730413</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="4"/>
+        <v>8.2220728568894579</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="10"/>
+        <v>4.4715433800266879E-2</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="11"/>
+        <v>1.7317560435621715E-2</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="12"/>
+        <v>2.836247121528146E-2</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="13"/>
+        <v>2.5902135569244929E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2">
@@ -1344,19 +3839,61 @@
       <c r="F24" s="2">
         <v>492.65899999999999</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50853355355714036</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35164835949204815</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6321580950013921E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4054729122833018E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="8"/>
+        <v>3.5449370132260016E-2</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="9"/>
+        <v>1.162323121728957E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>7.2449408325608777</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="3"/>
+        <v>10.125366304328537</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="4"/>
+        <v>8.2569083634213456</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="10"/>
+        <v>3.5677501993623295E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="11"/>
+        <v>2.3769971598124329E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="12"/>
+        <v>3.4835506531887717E-2</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1339825144863987E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2">
@@ -1374,19 +3911,61 @@
       <c r="F25" s="2">
         <v>527.76199999999994</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5082602623454181</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35693720685655539</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="6"/>
+        <v>5.5379054517526338E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5380080421652851E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="8"/>
+        <v>4.545685700645552E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="9"/>
+        <v>2.6254124611707175E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>7.2988408283400386</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="3"/>
+        <v>10.150429658353275</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="4"/>
+        <v>8.3013623370393876</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="10"/>
+        <v>5.3899995779160825E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5063354024737805E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="12"/>
+        <v>4.4453973618042042E-2</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="13"/>
+        <v>2.5294011710392566E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="2">
@@ -1404,19 +3983,61 @@
       <c r="F26" s="2">
         <v>552.91</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51061695488233005</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35945260694318032</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="6"/>
+        <v>4.0318953594145723E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="7"/>
+        <v>1.4377726827096371E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="8"/>
+        <v>4.7710578211218602E-2</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5827750786774768E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>7.338368180622953</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="3"/>
+        <v>10.164705005820824</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="4"/>
+        <v>8.347969718968443</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="10"/>
+        <v>3.9527352282914485E-2</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4275347467549437E-2</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="12"/>
+        <v>4.6607381929055336E-2</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5484972891951793E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2">
@@ -1434,19 +4055,61 @@
       <c r="F27" s="2">
         <v>564.82899999999995</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51502649214745422</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35572407356207753</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="6"/>
+        <v>3.2264334936939143E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="7"/>
+        <v>4.9017720310200463E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5356962915254151E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3605228869878097E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>7.3701229533892443</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="3"/>
+        <v>10.169594803282454</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="4"/>
+        <v>8.3923281373626537</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="10"/>
+        <v>3.1754772766291239E-2</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="11"/>
+        <v>4.8897974616295414E-3</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="12"/>
+        <v>4.435841839421073E-2</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3457040244357021E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
@@ -1464,19 +4127,61 @@
       <c r="F28" s="2">
         <v>578.73400000000004</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51618173188132954</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35490652285630536</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="6"/>
+        <v>2.697834590500614E-2</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="7"/>
+        <v>2.8738384902760039E-4</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3067245551859488E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="9"/>
+        <v>7.9960920157281616E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>7.3967437993081253</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="3"/>
+        <v>10.169882145844653</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="4"/>
+        <v>8.4440352293984144</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="10"/>
+        <v>2.6620845918881031E-2</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8734256219919985E-4</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="12"/>
+        <v>5.1707092035760738E-2</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="13"/>
+        <v>8.1213406960590241E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2">
@@ -1494,19 +4199,61 @@
       <c r="F29" s="2">
         <v>607.47299999999996</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51124019157063394</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35649426444188709</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="6"/>
+        <v>4.498346074548687E-2</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3981995786247481E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="8"/>
+        <v>5.7009599184036919E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="9"/>
+        <v>2.3945049797816729E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>7.4407448575618398</v>
+      </c>
+      <c r="N29" s="14">
+        <f t="shared" si="3"/>
+        <v>10.171279368852435</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="4"/>
+        <v>8.4994790177817361</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="10"/>
+        <v>4.4001058253714476E-2</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3972230077818892E-3</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="12"/>
+        <v>5.5443788383321646E-2</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="13"/>
+        <v>2.3521349137965268E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2">
@@ -1524,19 +4271,61 @@
       <c r="F30" s="2">
         <v>625.01400000000001</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51144427361607792</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35393410177784196</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6317670166823302E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="7"/>
+        <v>6.885603350993641E-3</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="8"/>
+        <v>6.2290102070168496E-2</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="9"/>
+        <v>1.0749476436710745E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>7.4764185858324774</v>
+      </c>
+      <c r="N30" s="14">
+        <f t="shared" si="3"/>
+        <v>10.178141374696795</v>
+      </c>
+      <c r="O30" s="14">
+        <f t="shared" si="4"/>
+        <v>8.5599060690896209</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="10"/>
+        <v>3.5673728270637639E-2</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="11"/>
+        <v>6.8620058443595866E-3</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="12"/>
+        <v>6.0427051307884838E-2</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="13"/>
+        <v>1.0777000548280083E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2">
@@ -1554,19 +4343,61 @@
       <c r="F31" s="2">
         <v>659.20899999999995</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50970510526466717</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35668568206818596</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="6"/>
+        <v>4.6574419348719198E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0858043804494288E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
+        <v>6.5415390122745665E-2</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="9"/>
+        <v>1.7707285944693056E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>7.521940958820263</v>
+      </c>
+      <c r="N31" s="14">
+        <f t="shared" si="3"/>
+        <v>10.18894089320932</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" si="4"/>
+        <v>8.6232708298800276</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="10"/>
+        <v>4.5522372987785609E-2</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="11"/>
+        <v>1.0799518512525808E-2</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="12"/>
+        <v>6.3364760790406649E-2</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="13"/>
+        <v>1.7416500345937273E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
@@ -1584,19 +4415,61 @@
       <c r="F32" s="2">
         <v>705.55799999999999</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50476470103432647</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36343491160835706</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="6"/>
+        <v>5.0433649631442368E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="7"/>
+        <v>1.4469713199009249E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="8"/>
+        <v>6.9185747528437869E-2</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="9"/>
+        <v>1.798533313693609E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>7.5711440373778069</v>
+      </c>
+      <c r="N32" s="14">
+        <f t="shared" si="3"/>
+        <v>10.203306919128252</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="4"/>
+        <v>8.6901682050405498</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="10"/>
+        <v>4.9203078557543911E-2</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4366025918931769E-2</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="12"/>
+        <v>6.6897375160522188E-2</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="13"/>
+        <v>1.7638774151227447E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
@@ -1614,19 +4487,61 @@
       <c r="F33" s="2">
         <v>725.06100000000004</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50702777582589664</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36391702386091007</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="6"/>
+        <v>2.6280545596901295E-2</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0644072568843956E-3</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="8"/>
+        <v>4.3288714914852866E-2</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="9"/>
+        <v>7.9592501509900271E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>7.5970851830037951</v>
+      </c>
+      <c r="N33" s="14">
+        <f t="shared" si="3"/>
+        <v>10.20835854540859</v>
+      </c>
+      <c r="O33" s="14">
+        <f t="shared" si="4"/>
+        <v>8.7325461547527112</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="10"/>
+        <v>2.5941145625988149E-2</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="11"/>
+        <v>5.0516262803377288E-3</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="12"/>
+        <v>4.2377949712161467E-2</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="13"/>
+        <v>7.9577734521877521E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2">
@@ -1644,19 +4559,61 @@
       <c r="F34" s="2">
         <v>675.93299999999999</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="G34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5231364857453592</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34906285923213015</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="6"/>
+        <v>-2.8086007689296255E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.1419514173025114E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5924539522547576E-2</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.7670708473596095E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>7.5685972192899902</v>
+      </c>
+      <c r="N34" s="14">
+        <f t="shared" si="3"/>
+        <v>10.196873327904587</v>
+      </c>
+      <c r="O34" s="14">
+        <f t="shared" si="4"/>
+        <v>8.7483452290272137</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="10"/>
+        <v>-2.8487963713804909E-2</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.1485217504002776E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="12"/>
+        <v>1.5799074274502445E-2</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="13"/>
+        <v>-2.7994497430218427E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
@@ -1674,19 +4631,61 @@
       <c r="F35" s="2">
         <v>705.00099999999998</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52133400224228166</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35333277535234242</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="6"/>
+        <v>3.0399881843936827E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="7"/>
+        <v>9.8064073499570803E-4</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="8"/>
+        <v>3.7858473642491175E-2</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6512000922094788E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>7.5985441809878438</v>
+      </c>
+      <c r="N35" s="14">
+        <f t="shared" si="3"/>
+        <v>10.197853488125572</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" si="4"/>
+        <v>8.7855046592366062</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="10"/>
+        <v>2.9946961697853602E-2</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="11"/>
+        <v>9.8016022098512678E-4</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="12"/>
+        <v>3.7159430209392497E-2</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6306326240612422E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
@@ -1704,19 +4703,61 @@
       <c r="F36" s="2">
         <v>720.31500000000005</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51930873424541468</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34994454347106863</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1614467879089281E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5319886014415527E-3</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1961854611232807E-2</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3018718356996558E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>7.6296692006131641</v>
+      </c>
+      <c r="N36" s="14">
+        <f t="shared" si="3"/>
+        <v>10.205357252933133</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" si="4"/>
+        <v>8.8266099940389964</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="10"/>
+        <v>3.1125019625320327E-2</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="11"/>
+        <v>7.5037648075610974E-3</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="12"/>
+        <v>4.1105334802390203E-2</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2843661399382617E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2">
@@ -1734,19 +4775,61 @@
       <c r="F37" s="2">
         <v>719.87900000000002</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52295763508687265</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34463693099017428</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="6"/>
+        <v>1.4785978607334327E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="7"/>
+        <v>3.4013982704628187E-3</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5354641339961459E-2</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="9"/>
+        <v>4.2690456340635959E-3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>7.6443469323581912</v>
+      </c>
+      <c r="N37" s="14">
+        <f t="shared" si="3"/>
+        <v>10.20875287953263</v>
+      </c>
+      <c r="O37" s="14">
+        <f t="shared" si="4"/>
+        <v>8.8516485383392762</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="10"/>
+        <v>1.4677731745027067E-2</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="11"/>
+        <v>3.3956265994969925E-3</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="12"/>
+        <v>2.5038544300279852E-2</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="13"/>
+        <v>4.272755824806072E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="2">
@@ -1764,19 +4847,61 @@
       <c r="F38" s="2">
         <v>721.89800000000002</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52402854727256409</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34096987044148142</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3589594811193484E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8349502757952774E-3</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="8"/>
+        <v>1.7379731962800626E-2</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="9"/>
+        <v>6.7020635281872911E-3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>7.6578450167533321</v>
+      </c>
+      <c r="N38" s="14">
+        <f t="shared" si="3"/>
+        <v>10.21058614834379</v>
+      </c>
+      <c r="O38" s="14">
+        <f t="shared" si="4"/>
+        <v>8.8688789701426121</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="10"/>
+        <v>1.3498084395140886E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="11"/>
+        <v>1.8332688111595274E-3</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="12"/>
+        <v>1.7230431803335833E-2</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="13"/>
+        <v>6.6623411036346577E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2">
@@ -1794,19 +4919,61 @@
       <c r="F39" s="2">
         <v>739.48599999999999</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
+      <c r="G39" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52410426255893094</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34398457505820407</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5385959691855522E-2</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="7"/>
+        <v>5.2961621214071553E-3</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0812953256992053E-2</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8907294175922472E-3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>7.6731138128221925</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="3"/>
+        <v>10.215868335120666</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="4"/>
+        <v>8.8796338814489459</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="10"/>
+        <v>1.5268796068860446E-2</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="11"/>
+        <v>5.2821867768759745E-3</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="12"/>
+        <v>1.0754911306333881E-2</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="13"/>
+        <v>8.8008558679693941E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2">
@@ -1824,19 +4991,61 @@
       <c r="F40" s="2">
         <v>770.85599999999999</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="G40" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51919777368597264</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35063900088790562</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="6"/>
+        <v>2.2638288371054527E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0999871952001037E-3</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0245985612792392E-3</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8734242472484106E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>7.6954996579628485</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" si="3"/>
+        <v>10.217966120424846</v>
+      </c>
+      <c r="O40" s="14">
+        <f t="shared" si="4"/>
+        <v>8.8876264541349688</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="10"/>
+        <v>2.2385845140656002E-2</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0977853041799222E-3</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="12"/>
+        <v>7.9925726860228252E-3</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="13"/>
+        <v>1.8494171979903627E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2">
@@ -1854,19 +5063,61 @@
       <c r="F41" s="2">
         <v>775.45100000000002</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="G41" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52068927085230987</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34709320724094267</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="6"/>
+        <v>1.6237481987161795E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="7"/>
+        <v>6.4364442205258054E-3</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="8"/>
+        <v>2.2391363485095406E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="9"/>
+        <v>5.1142043725551541E-3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>7.7116067219190558</v>
+      </c>
+      <c r="N41" s="14">
+        <f t="shared" si="3"/>
+        <v>10.224381939194007</v>
+      </c>
+      <c r="O41" s="14">
+        <f t="shared" si="4"/>
+        <v>8.9097708114449379</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="10"/>
+        <v>1.6107063956207313E-2</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="11"/>
+        <v>6.4158187691614188E-3</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="12"/>
+        <v>2.2144357309969109E-2</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0802599583654965E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2">
@@ -1884,19 +5135,61 @@
       <c r="F42" s="2">
         <v>786.31100000000004</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+      <c r="G42" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52229630139097216</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34228479193746236</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="6"/>
+        <v>2.824948783172343E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1390347949737478E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="8"/>
+        <v>3.2394538925364813E-2</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1212193210040782E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>7.7394645519502925</v>
+      </c>
+      <c r="N42" s="14">
+        <f t="shared" si="3"/>
+        <v>10.235707905555083</v>
+      </c>
+      <c r="O42" s="14">
+        <f t="shared" si="4"/>
+        <v>8.9416517106045497</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="10"/>
+        <v>2.7857830031236652E-2</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="11"/>
+        <v>1.1325966361075857E-2</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="12"/>
+        <v>3.1880899159611786E-2</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1029972755541228E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2">
@@ -1914,19 +5207,61 @@
       <c r="F43" s="2">
         <v>810.22799999999995</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="G43" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52110602689622076</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34283668725082572</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="6"/>
+        <v>2.8757962809316417E-2</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="7"/>
+        <v>9.9278366784787409E-3</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3023836797660522E-2</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2262724474097937E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>7.7678167652058505</v>
+      </c>
+      <c r="N43" s="14">
+        <f t="shared" si="3"/>
+        <v>10.245586785022473</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" si="4"/>
+        <v>8.9741419757881733</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="10"/>
+        <v>2.8352213255558034E-2</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="11"/>
+        <v>9.8788794673900782E-3</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="12"/>
+        <v>3.2490265183623634E-2</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2065414742665372E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="2">
@@ -1944,19 +5279,61 @@
       <c r="F44" s="2">
         <v>858.15700000000004</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
+      <c r="G44" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5098675560533058</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35204491238433971</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1451280536672011E-2</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1985936501171857E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0322913183996381E-2</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="9"/>
+        <v>1.466501307071146E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>7.798783585953716</v>
+      </c>
+      <c r="N44" s="14">
+        <f t="shared" si="3"/>
+        <v>10.257501459053213</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" si="4"/>
+        <v>9.0040142368419982</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="10"/>
+        <v>3.0966820747865498E-2</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="11"/>
+        <v>1.1914674030739647E-2</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="12"/>
+        <v>2.98722610538249E-2</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="13"/>
+        <v>1.4375537493224575E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2">
@@ -1974,19 +5351,61 @@
       <c r="F45" s="2">
         <v>812.92600000000004</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
+      <c r="G45" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51560682568883331</v>
+      </c>
+      <c r="H45" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35072688615913494</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9147226717699888E-2</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.6844764962886671E-4</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="8"/>
+        <v>3.5494526146994332E-2</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="9"/>
+        <v>-6.1509258591009322E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>7.748387545000516</v>
+      </c>
+      <c r="N45" s="14">
+        <f t="shared" si="3"/>
+        <v>10.257332997214686</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="4"/>
+        <v>9.0388933524883779</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="10"/>
+        <v>-5.039604095320005E-2</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.684618385269232E-4</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="12"/>
+        <v>3.4879115646379688E-2</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" si="13"/>
+        <v>-6.2542224502026594E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2">
@@ -2004,19 +5423,61 @@
       <c r="F46" s="2">
         <v>885.06700000000001</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="G46" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51381149889813349</v>
+      </c>
+      <c r="H46" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35372712238191806</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="6"/>
+        <v>7.9507919469573363E-2</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="7"/>
+        <v>2.8142516680881746E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0615480015369556E-2</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="9"/>
+        <v>3.6532089025730088E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>7.8248928521849352</v>
+      </c>
+      <c r="N46" s="14">
+        <f t="shared" si="3"/>
+        <v>10.28508678954231</v>
+      </c>
+      <c r="O46" s="14">
+        <f t="shared" si="4"/>
+        <v>9.1164241202026144</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="10"/>
+        <v>7.650530718441928E-2</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="11"/>
+        <v>2.7753792327624538E-2</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="12"/>
+        <v>7.7530767714236504E-2</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="13"/>
+        <v>3.4820354188837208E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2">
@@ -2034,19 +5495,68 @@
       <c r="F47" s="2">
         <v>898.92499999999995</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+      <c r="G47" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52350202266537127</v>
+      </c>
+      <c r="H47" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34061904624772454</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="6"/>
+        <v>5.4743221542709053E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="7"/>
+        <v>2.6457284287787042E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="8"/>
+        <v>7.6202575028093467E-2</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4936731276129923E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>7.8781901975857034</v>
+      </c>
+      <c r="N47" s="14">
+        <f t="shared" si="3"/>
+        <v>10.311200133184771</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" si="4"/>
+        <v>9.1898628309769794</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="10"/>
+        <v>5.3297345400768137E-2</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="11"/>
+        <v>2.6113343642460762E-2</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="12"/>
+        <v>7.3438710774365035E-2</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="13"/>
+        <v>1.4612333563757306E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TD/data_td_2.xlsx
+++ b/TD/data_td_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/TD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A714F-2115-B64D-BDD3-DE2CEF7BBAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2F761-1E0C-B542-B4FE-261C0B9CB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -376,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -405,6 +406,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -476,7 +479,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -522,7 +525,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -811,7 +826,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F82B-8041-B5C1-15E28484369D}"/>
+              <c16:uniqueId val="{00000000-5223-3146-9578-8D178CFD31EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -839,7 +854,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -991,7 +1018,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="1">
-                  <c:v>7.9211330476353356E-2</c:v>
+                  <c:v>7.921133047635337E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.3853941347616428E-2</c:v>
@@ -1003,7 +1030,7 @@
                   <c:v>9.7466406590044991E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5183577270511837E-2</c:v>
+                  <c:v>7.5183577270511823E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.2082511133057537E-2</c:v>
@@ -1012,10 +1039,10 @@
                   <c:v>5.0517739681994904E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0037567728142343E-2</c:v>
+                  <c:v>5.003756772814235E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4689502139456979E-2</c:v>
+                  <c:v>2.4689502139456976E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.1344803156463642E-2</c:v>
@@ -1027,7 +1054,7 @@
                   <c:v>2.6948507016643919E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5486858429360331E-2</c:v>
+                  <c:v>1.5486858429360328E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.5912446328046582E-2</c:v>
@@ -1039,7 +1066,7 @@
                   <c:v>2.0965333540799908E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6313075183656961E-2</c:v>
+                  <c:v>1.6313075183656957E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.3020103966597908E-2</c:v>
@@ -1051,13 +1078,13 @@
                   <c:v>2.5902135569244929E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1339825144863987E-2</c:v>
+                  <c:v>1.1339825144863988E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5294011710392566E-2</c:v>
+                  <c:v>2.5294011710392573E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5484972891951793E-2</c:v>
+                  <c:v>1.5484972891951797E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.3457040244357021E-2</c:v>
@@ -1069,19 +1096,19 @@
                   <c:v>2.3521349137965268E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0777000548280083E-2</c:v>
+                  <c:v>1.0777000548280079E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7416500345937273E-2</c:v>
+                  <c:v>1.7416500345937277E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7638774151227447E-2</c:v>
+                  <c:v>1.763877415122745E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.9577734521877521E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.7994497430218427E-2</c:v>
+                  <c:v>-2.7994497430218424E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.6306326240612422E-2</c:v>
@@ -1096,31 +1123,31 @@
                   <c:v>6.6623411036346577E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8008558679693941E-3</c:v>
+                  <c:v>8.8008558679693923E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.8494171979903627E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0802599583654965E-3</c:v>
+                  <c:v>5.0802599583654974E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1029972755541228E-2</c:v>
+                  <c:v>1.1029972755541224E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2065414742665372E-2</c:v>
+                  <c:v>1.2065414742665368E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4375537493224575E-2</c:v>
+                  <c:v>1.4375537493224571E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-6.2542224502026594E-2</c:v>
+                  <c:v>-6.254222450202658E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.4820354188837208E-2</c:v>
+                  <c:v>3.4820354188837201E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4612333563757306E-2</c:v>
+                  <c:v>1.4612333563757303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F82B-8041-B5C1-15E28484369D}"/>
+              <c16:uniqueId val="{00000001-5223-3146-9578-8D178CFD31EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1140,12 +1167,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1350078672"/>
-        <c:axId val="1080254016"/>
+        <c:axId val="1000579136"/>
+        <c:axId val="1000918912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1350078672"/>
+        <c:axId val="1000579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080254016"/>
+        <c:crossAx val="1000918912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1080254016"/>
+        <c:axId val="1000918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350078672"/>
+        <c:crossAx val="1000579136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1274,7 +1302,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1375,7 +1403,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1483,11 +1511,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1498,11 +1521,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1534,9 +1552,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1894,23 +1909,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1061720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B071EA-15E7-26C2-CEAE-1511C17A6520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0A7CD9-1771-E413-6E4E-A9B5E517CC07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,14 +2265,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3364EC-9B22-8241-B65C-D4060D71316A}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="192" workbookViewId="0">
+      <selection activeCell="L2" activeCellId="1" sqref="S2:S47 L2:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" customWidth="1"/>
     <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2371,7 +2388,7 @@
         <f>LN(B3)</f>
         <v>5.8539681614200854</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="16">
         <f>LN(C3)</f>
         <v>10.016217844555859</v>
       </c>
@@ -2427,7 +2444,7 @@
         <f t="shared" ref="M4:M47" si="2">LN(B4)</f>
         <v>5.9869795043233083</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="16">
         <f t="shared" ref="N4:N47" si="3">LN(C4)</f>
         <v>10.02294030455109</v>
       </c>
@@ -2440,16 +2457,16 @@
         <v>0.13301134290322292</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:R4" si="5">N4-N3</f>
+        <f>N4-N3</f>
         <v>6.7224599952311337E-3</v>
       </c>
-      <c r="R4" s="4">
-        <f t="shared" si="5"/>
+      <c r="R4" s="17">
+        <f>O4-O3</f>
         <v>0.15580660300698135</v>
       </c>
       <c r="S4" s="4">
-        <f>P4-(G4*Q4)-(H4*R4)</f>
-        <v>7.9211330476353356E-2</v>
+        <f>P4-(R4*H4)-(Q4*G4)</f>
+        <v>7.921133047635337E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2480,26 +2497,26 @@
         <v>0.31953427629103304</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I47" si="6">(B5/B4)-1</f>
+        <f t="shared" ref="I5:I47" si="5">(B5/B4)-1</f>
         <v>0.13450189598453077</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J47" si="7">(C5/C4)-1</f>
+        <f t="shared" ref="J5:J47" si="6">(C5/C4)-1</f>
         <v>4.579014624449762E-3</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K47" si="8">(D5/D4)-1</f>
+        <f t="shared" ref="K5:K47" si="7">(D5/D4)-1</f>
         <v>0.16869773881273931</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" ref="L5:L47" si="9">I5-(G5*J5)-(H5*K5)</f>
+        <f t="shared" ref="L5:L47" si="8">I5-(G5*J5)-(H5*K5)</f>
         <v>7.8063874158663324E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
         <v>6.1131732007668376</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="16">
         <f t="shared" si="3"/>
         <v>10.027508867381874</v>
       </c>
@@ -2508,19 +2525,19 @@
         <v>7.1681576201360873</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P47" si="10">M5-M4</f>
+        <f t="shared" ref="P5:P47" si="9">M5-M4</f>
         <v>0.12619369644352929</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q47" si="11">N5-N4</f>
+        <f t="shared" ref="Q5:Q47" si="10">N5-N4</f>
         <v>4.5685628307836623E-3</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" ref="R5:R47" si="12">O5-O4</f>
+        <f t="shared" ref="R5:R47" si="11">O5-O4</f>
         <v>0.1558900851666527</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5:S47" si="13">P5-(G5*Q5)-(H5*R5)</f>
+        <f t="shared" ref="S5:S47" si="12">P5-(R5*H5)-(Q5*G5)</f>
         <v>7.3853941347616428E-2</v>
       </c>
     </row>
@@ -2552,26 +2569,26 @@
         <v>0.31687206486465286</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.12885981804900726</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="6"/>
-        <v>0.12885981804900726</v>
-      </c>
-      <c r="J6" s="4">
+        <v>-1.0202819688349685E-3</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="7"/>
-        <v>-1.0202819688349685E-3</v>
-      </c>
-      <c r="K6" s="4">
+        <v>0.15579767112771803</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>0.15579767112771803</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="9"/>
         <v>8.0059653901803418E-2</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
         <v>6.2343813135211308</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="16">
         <f t="shared" si="3"/>
         <v>10.02648806457109</v>
       </c>
@@ -2580,19 +2597,19 @@
         <v>7.3129483500915926</v>
       </c>
       <c r="P6" s="4">
+        <f t="shared" si="9"/>
+        <v>0.12120811275429322</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="10"/>
-        <v>0.12120811275429322</v>
-      </c>
-      <c r="Q6" s="4">
+        <v>-1.0208028107836498E-3</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="11"/>
-        <v>-1.0208028107836498E-3</v>
-      </c>
-      <c r="R6" s="4">
+        <v>0.14479072995550535</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="12"/>
-        <v>0.14479072995550535</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="13"/>
         <v>7.5896030621837363E-2</v>
       </c>
     </row>
@@ -2624,26 +2641,26 @@
         <v>0.31539841191558199</v>
       </c>
       <c r="I7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.14903183426963551</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="6"/>
-        <v>0.14903183426963551</v>
-      </c>
-      <c r="J7" s="4">
+        <v>2.6041551528226403E-3</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="7"/>
-        <v>2.6041551528226403E-3</v>
-      </c>
-      <c r="K7" s="4">
+        <v>0.13524678712609828</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>0.13524678712609828</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="9"/>
         <v>0.10492834151690317</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
         <v>6.3733010180697711</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="16">
         <f t="shared" si="3"/>
         <v>10.02908883478721</v>
       </c>
@@ -2652,19 +2669,19 @@
         <v>7.4397984109809769</v>
       </c>
       <c r="P7" s="4">
+        <f t="shared" si="9"/>
+        <v>0.13891970454864033</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="10"/>
-        <v>0.13891970454864033</v>
-      </c>
-      <c r="Q7" s="4">
+        <v>2.6007702161194857E-3</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="11"/>
-        <v>2.6007702161194857E-3</v>
-      </c>
-      <c r="R7" s="4">
+        <v>0.12685006088938433</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="12"/>
-        <v>0.12685006088938433</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="13"/>
         <v>9.7466406590044991E-2</v>
       </c>
     </row>
@@ -2696,26 +2713,26 @@
         <v>0.32207399709767082</v>
       </c>
       <c r="I8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1101095754357162</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>0.1101095754357162</v>
-      </c>
-      <c r="J8" s="4">
+        <v>-1.0671793831525944E-3</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="7"/>
-        <v>-1.0671793831525944E-3</v>
-      </c>
-      <c r="K8" s="4">
+        <v>9.7153030973204491E-2</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>9.7153030973204491E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="9"/>
         <v>7.9405920292577467E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
         <v>6.4777597451306033</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="16">
         <f t="shared" si="3"/>
         <v>10.028021085562688</v>
       </c>
@@ -2724,20 +2741,20 @@
         <v>7.5325170820647021</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" si="9"/>
+        <v>0.10445872706083215</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="10"/>
-        <v>0.10445872706083215</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>-1.0677492245214637E-3</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="11"/>
-        <v>-1.0677492245214637E-3</v>
-      </c>
-      <c r="R8" s="4">
+        <v>9.2718671083725113E-2</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="12"/>
-        <v>9.2718671083725113E-2</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="13"/>
-        <v>7.5183577270511837E-2</v>
+        <v>7.5183577270511823E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2768,26 +2785,26 @@
         <v>0.32846979618969491</v>
       </c>
       <c r="I9" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6882332685638497E-2</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="6"/>
-        <v>8.6882332685638497E-2</v>
-      </c>
-      <c r="J9" s="4">
+        <v>-5.1561865409406327E-3</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="7"/>
-        <v>-5.1561865409406327E-3</v>
-      </c>
-      <c r="K9" s="4">
+        <v>7.5931001214797567E-2</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>7.5931001214797567E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="9"/>
         <v>6.4742703771950461E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
         <v>6.5610730978110361</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f t="shared" si="3"/>
         <v>10.022851560019914</v>
       </c>
@@ -2796,19 +2813,19 @@
         <v>7.6057034164831236</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="9"/>
+        <v>8.3313352680432828E-2</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="10"/>
-        <v>8.3313352680432828E-2</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>-5.1695255427741671E-3</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="11"/>
-        <v>-5.1695255427741671E-3</v>
-      </c>
-      <c r="R9" s="4">
+        <v>7.3186334418421595E-2</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="12"/>
-        <v>7.3186334418421595E-2</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="13"/>
         <v>6.2082511133057537E-2</v>
       </c>
     </row>
@@ -2840,26 +2857,26 @@
         <v>0.33459506472972422</v>
       </c>
       <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>7.1650425017325992E-2</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="6"/>
-        <v>7.1650425017325992E-2</v>
-      </c>
-      <c r="J10" s="4">
+        <v>-2.138838105042562E-3</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="7"/>
-        <v>-2.138838105042562E-3</v>
-      </c>
-      <c r="K10" s="4">
+        <v>6.1060645642843747E-2</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>6.1060645642843747E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="9"/>
         <v>5.2367552033418759E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
         <v>6.6302730112128359</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="16">
         <f t="shared" si="3"/>
         <v>10.020710431333947</v>
       </c>
@@ -2868,19 +2885,19 @@
         <v>7.6649724334285319</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="9"/>
+        <v>6.9199913401799762E-2</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="10"/>
-        <v>6.9199913401799762E-2</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>-2.14112868596672E-3</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="11"/>
-        <v>-2.14112868596672E-3</v>
-      </c>
-      <c r="R10" s="4">
+        <v>5.9269016945408204E-2</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="12"/>
-        <v>5.9269016945408204E-2</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="13"/>
         <v>5.0517739681994904E-2</v>
       </c>
     </row>
@@ -2912,26 +2929,26 @@
         <v>0.35083403306669808</v>
       </c>
       <c r="I11" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5106013153154016E-2</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="6"/>
-        <v>7.5106013153154016E-2</v>
-      </c>
-      <c r="J11" s="4">
+        <v>4.8516057881302643E-3</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="7"/>
-        <v>4.8516057881302643E-3</v>
-      </c>
-      <c r="K11" s="4">
+        <v>5.8201013537279023E-2</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>5.8201013537279023E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="9"/>
         <v>5.2146056479787498E-2</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
         <v>6.7026922848167914</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="16">
         <f t="shared" si="3"/>
         <v>10.025550306010569</v>
       </c>
@@ -2940,20 +2957,20 @@
         <v>7.7215427427096541</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="9"/>
+        <v>7.2419273603955503E-2</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="10"/>
-        <v>7.2419273603955503E-2</v>
-      </c>
-      <c r="Q11" s="4">
+        <v>4.8398746766213918E-3</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="11"/>
-        <v>4.8398746766213918E-3</v>
-      </c>
-      <c r="R11" s="4">
+        <v>5.6570309281122277E-2</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="12"/>
-        <v>5.6570309281122277E-2</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="13"/>
-        <v>5.0037567728142343E-2</v>
+        <v>5.003756772814235E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2984,26 +3001,26 @@
         <v>0.35228503369809916</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0806780293544129E-2</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="6"/>
-        <v>5.0806780293544129E-2</v>
-      </c>
-      <c r="J12" s="4">
+        <v>8.8553537052198372E-3</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="7"/>
-        <v>8.8553537052198372E-3</v>
-      </c>
-      <c r="K12" s="4">
+        <v>5.9266862196080794E-2</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>5.9266862196080794E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="9"/>
         <v>2.5322476344738467E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
         <v>6.7522505161314497</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="16">
         <f t="shared" si="3"/>
         <v>10.034366681015603</v>
       </c>
@@ -3012,20 +3029,20 @@
         <v>7.7791197721030718</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>4.9558231314658308E-2</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="10"/>
-        <v>4.9558231314658308E-2</v>
-      </c>
-      <c r="Q12" s="4">
+        <v>8.8163750050345158E-3</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="11"/>
-        <v>8.8163750050345158E-3</v>
-      </c>
-      <c r="R12" s="4">
+        <v>5.7577029393417689E-2</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="12"/>
-        <v>5.7577029393417689E-2</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="13"/>
-        <v>2.4689502139456979E-2</v>
+        <v>2.4689502139456976E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -3056,26 +3073,26 @@
         <v>0.36137114076187699</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="5"/>
+        <v>8.0880110936782712E-2</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="6"/>
-        <v>8.0880110936782712E-2</v>
-      </c>
-      <c r="J13" s="4">
+        <v>9.7909337357324766E-3</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="7"/>
-        <v>9.7909337357324766E-3</v>
-      </c>
-      <c r="K13" s="4">
+        <v>6.1241669002623178E-2</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>6.1241669002623178E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="9"/>
         <v>5.3773876193141293E-2</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
         <v>6.8300261429366245</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="16">
         <f t="shared" si="3"/>
         <v>10.044109994140825</v>
       </c>
@@ -3084,19 +3101,19 @@
         <v>7.8385593805414722</v>
       </c>
       <c r="P13" s="4">
+        <f t="shared" si="9"/>
+        <v>7.7775626805174802E-2</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="10"/>
-        <v>7.7775626805174802E-2</v>
-      </c>
-      <c r="Q13" s="4">
+        <v>9.7433131252220306E-3</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="11"/>
-        <v>9.7433131252220306E-3</v>
-      </c>
-      <c r="R13" s="4">
+        <v>5.9439608438400349E-2</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="12"/>
-        <v>5.9439608438400349E-2</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="13"/>
         <v>5.1344803156463642E-2</v>
       </c>
     </row>
@@ -3128,26 +3145,26 @@
         <v>0.36918287750433498</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>7.7718151997103302E-2</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="6"/>
-        <v>7.7718151997103302E-2</v>
-      </c>
-      <c r="J14" s="4">
+        <v>1.7376345580760955E-2</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="7"/>
-        <v>1.7376345580760955E-2</v>
-      </c>
-      <c r="K14" s="4">
+        <v>6.1633369445403874E-2</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>6.1633369445403874E-2</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="9"/>
         <v>4.6242422340501563E-2</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>6.9048721266900897</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="16">
         <f t="shared" si="3"/>
         <v>10.061337097405595</v>
       </c>
@@ -3156,19 +3173,19 @@
         <v>7.8983680172459101</v>
       </c>
       <c r="P14" s="4">
+        <f t="shared" si="9"/>
+        <v>7.4845983753465184E-2</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="10"/>
-        <v>7.4845983753465184E-2</v>
-      </c>
-      <c r="Q14" s="4">
+        <v>1.7227103264769283E-2</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="11"/>
-        <v>1.7227103264769283E-2</v>
-      </c>
-      <c r="R14" s="4">
+        <v>5.9808636704437923E-2</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="12"/>
-        <v>5.9808636704437923E-2</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="13"/>
         <v>4.4118823684313822E-2</v>
       </c>
     </row>
@@ -3200,26 +3217,26 @@
         <v>0.36468175096293848</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6587916611925859E-2</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="6"/>
-        <v>5.6587916611925859E-2</v>
-      </c>
-      <c r="J15" s="4">
+        <v>9.0649792056294309E-3</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="7"/>
-        <v>9.0649792056294309E-3</v>
-      </c>
-      <c r="K15" s="4">
+        <v>6.661853982570376E-2</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>6.661853982570376E-2</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="9"/>
         <v>2.769594214940849E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
         <v>6.9599168962682185</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="16">
         <f t="shared" si="3"/>
         <v>10.070361236312648</v>
       </c>
@@ -3228,19 +3245,19 @@
         <v>7.9628614184521895</v>
       </c>
       <c r="P15" s="4">
+        <f t="shared" si="9"/>
+        <v>5.5044769578128872E-2</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="10"/>
-        <v>5.5044769578128872E-2</v>
-      </c>
-      <c r="Q15" s="4">
+        <v>9.0241389070531142E-3</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="11"/>
-        <v>9.0241389070531142E-3</v>
-      </c>
-      <c r="R15" s="4">
+        <v>6.4493401206279444E-2</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="12"/>
-        <v>6.4493401206279444E-2</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="13"/>
         <v>2.6948507016643919E-2</v>
       </c>
     </row>
@@ -3272,26 +3289,26 @@
         <v>0.36165997224524943</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6219586045602048E-2</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="6"/>
-        <v>3.6219586045602048E-2</v>
-      </c>
-      <c r="J16" s="4">
+        <v>2.2681014382979203E-3</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>2.2681014382979203E-3</v>
-      </c>
-      <c r="K16" s="4">
+        <v>5.3749286281281616E-2</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>5.3749286281281616E-2</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="9"/>
         <v>1.5621635898764259E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
         <v>6.99549597328856</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="16">
         <f t="shared" si="3"/>
         <v>10.072626769491528</v>
       </c>
@@ -3300,20 +3317,20 @@
         <v>8.0152159714727507</v>
       </c>
       <c r="P16" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5579077020341465E-2</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="10"/>
-        <v>3.5579077020341465E-2</v>
-      </c>
-      <c r="Q16" s="4">
+        <v>2.2655331788801192E-3</v>
+      </c>
+      <c r="R16" s="4">
         <f t="shared" si="11"/>
-        <v>2.2655331788801192E-3</v>
-      </c>
-      <c r="R16" s="4">
+        <v>5.2354553020561134E-2</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="12"/>
-        <v>5.2354553020561134E-2</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="13"/>
-        <v>1.5486858429360331E-2</v>
+        <v>1.5486858429360328E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -3344,26 +3361,26 @@
         <v>0.36350855848407981</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="5"/>
+        <v>3.5978583958120591E-2</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="6"/>
-        <v>3.5978583958120591E-2</v>
-      </c>
-      <c r="J17" s="4">
+        <v>-6.2822715815871177E-3</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="7"/>
-        <v>-6.2822715815871177E-3</v>
-      </c>
-      <c r="K17" s="4">
+        <v>3.5446959241911102E-2</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="8"/>
-        <v>3.5446959241911102E-2</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="9"/>
         <v>2.631129319320331E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
         <v>7.0308424450570888</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="16">
         <f t="shared" si="3"/>
         <v>10.066324681403113</v>
       </c>
@@ -3372,19 +3389,19 @@
         <v>8.0500491496501816</v>
       </c>
       <c r="P17" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5346471768528787E-2</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="10"/>
-        <v>3.5346471768528787E-2</v>
-      </c>
-      <c r="Q17" s="4">
+        <v>-6.3020880884145924E-3</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="11"/>
-        <v>-6.3020880884145924E-3</v>
-      </c>
-      <c r="R17" s="4">
+        <v>3.4833178177430923E-2</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="12"/>
-        <v>3.4833178177430923E-2</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="13"/>
         <v>2.5912446328046582E-2</v>
       </c>
     </row>
@@ -3416,26 +3433,26 @@
         <v>0.35912632571562164</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="5"/>
+        <v>9.8463018453858187E-3</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="6"/>
-        <v>9.8463018453858187E-3</v>
-      </c>
-      <c r="J18" s="4">
+        <v>-1.0336960262396611E-2</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="7"/>
-        <v>-1.0336960262396611E-2</v>
-      </c>
-      <c r="K18" s="4">
+        <v>2.6083704616763015E-2</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="8"/>
-        <v>2.6083704616763015E-2</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="9"/>
         <v>5.8076657933061413E-3</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
         <v>7.0406405879395484</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="16">
         <f t="shared" si="3"/>
         <v>10.055933923711262</v>
       </c>
@@ -3444,19 +3461,19 @@
         <v>8.0757984765181483</v>
       </c>
       <c r="P18" s="4">
+        <f t="shared" si="9"/>
+        <v>9.7981428824596151E-3</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="10"/>
-        <v>9.7981428824596151E-3</v>
-      </c>
-      <c r="Q18" s="4">
+        <v>-1.0390757691851604E-2</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="11"/>
-        <v>-1.0390757691851604E-2</v>
-      </c>
-      <c r="R18" s="4">
+        <v>2.5749326867966715E-2</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="12"/>
-        <v>2.5749326867966715E-2</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="13"/>
         <v>5.9073232884663939E-3</v>
       </c>
     </row>
@@ -3488,26 +3505,26 @@
         <v>0.35774032157861863</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3050846715622528E-2</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="6"/>
-        <v>3.3050846715622528E-2</v>
-      </c>
-      <c r="J19" s="4">
+        <v>5.0571830889172276E-3</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="7"/>
-        <v>5.0571830889172276E-3</v>
-      </c>
-      <c r="K19" s="4">
+        <v>2.5426237695502119E-2</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="8"/>
-        <v>2.5426237695502119E-2</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="9"/>
         <v>2.1379564086245865E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
         <v>7.073156999242844</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="16">
         <f t="shared" si="3"/>
         <v>10.060978362199576</v>
       </c>
@@ -3516,19 +3533,19 @@
         <v>8.1009068443244896</v>
       </c>
       <c r="P19" s="4">
+        <f t="shared" si="9"/>
+        <v>3.2516411303295634E-2</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="10"/>
-        <v>3.2516411303295634E-2</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>5.0444384883139293E-3</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="11"/>
-        <v>5.0444384883139293E-3</v>
-      </c>
-      <c r="R19" s="4">
+        <v>2.5108367806341292E-2</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="12"/>
-        <v>2.5108367806341292E-2</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="13"/>
         <v>2.0965333540799908E-2</v>
       </c>
     </row>
@@ -3560,26 +3577,26 @@
         <v>0.35356196845862958</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="5"/>
+        <v>3.2551126525277807E-2</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="6"/>
-        <v>3.2551126525277807E-2</v>
-      </c>
-      <c r="J20" s="4">
+        <v>9.9737734607925344E-3</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="7"/>
-        <v>9.9737734607925344E-3</v>
-      </c>
-      <c r="K20" s="4">
+        <v>3.0582051562765056E-2</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="8"/>
-        <v>3.0582051562765056E-2</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="9"/>
         <v>1.6644362659140752E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
         <v>7.1051895610857239</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="16">
         <f t="shared" si="3"/>
         <v>10.070902725845096</v>
       </c>
@@ -3588,20 +3605,20 @@
         <v>8.13103058556257</v>
       </c>
       <c r="P20" s="4">
+        <f t="shared" si="9"/>
+        <v>3.2032561842879836E-2</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="10"/>
-        <v>3.2032561842879836E-2</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>9.9243636455206286E-3</v>
+      </c>
+      <c r="R20" s="4">
         <f t="shared" si="11"/>
-        <v>9.9243636455206286E-3</v>
-      </c>
-      <c r="R20" s="4">
+        <v>3.012374123808037E-2</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="12"/>
-        <v>3.012374123808037E-2</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="13"/>
-        <v>1.6313075183656961E-2</v>
+        <v>1.6313075183656957E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -3632,26 +3649,26 @@
         <v>0.34860484912949802</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7902612961134388E-2</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="6"/>
-        <v>2.7902612961134388E-2</v>
-      </c>
-      <c r="J21" s="4">
+        <v>5.6714132857402788E-3</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="7"/>
-        <v>5.6714132857402788E-3</v>
-      </c>
-      <c r="K21" s="4">
+        <v>3.3870758908866039E-2</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="8"/>
-        <v>3.3870758908866039E-2</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="9"/>
         <v>1.3198544941737984E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
         <v>7.1327099891574983</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="16">
         <f t="shared" si="3"/>
         <v>10.076558117215898</v>
       </c>
@@ -3660,19 +3677,19 @@
         <v>8.1643403624526591</v>
       </c>
       <c r="P21" s="4">
+        <f t="shared" si="9"/>
+        <v>2.7520428071774461E-2</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="10"/>
-        <v>2.7520428071774461E-2</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>5.6553913708015102E-3</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="11"/>
-        <v>5.6553913708015102E-3</v>
-      </c>
-      <c r="R21" s="4">
+        <v>3.3309776890089182E-2</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="12"/>
-        <v>3.3309776890089182E-2</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="13"/>
         <v>1.3020103966597908E-2</v>
       </c>
     </row>
@@ -3704,26 +3721,26 @@
         <v>0.35096849650016976</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="5"/>
+        <v>3.235015563785959E-2</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="6"/>
-        <v>3.235015563785959E-2</v>
-      </c>
-      <c r="J22" s="4">
+        <v>7.7505361873921874E-3</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="7"/>
-        <v>7.7505361873921874E-3</v>
-      </c>
-      <c r="K22" s="4">
+        <v>2.980557596153921E-2</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="8"/>
-        <v>2.980557596153921E-2</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="9"/>
         <v>1.7955384744342877E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
         <v>7.1645478967669876</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="16">
         <f t="shared" si="3"/>
         <v>10.084278772294791</v>
       </c>
@@ -3732,19 +3749,19 @@
         <v>8.1937103856741764</v>
       </c>
       <c r="P22" s="4">
+        <f t="shared" si="9"/>
+        <v>3.1837907609489235E-2</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="10"/>
-        <v>3.1837907609489235E-2</v>
-      </c>
-      <c r="Q22" s="4">
+        <v>7.7206550788933015E-3</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="11"/>
-        <v>7.7206550788933015E-3</v>
-      </c>
-      <c r="R22" s="4">
+        <v>2.9370023221517272E-2</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="12"/>
-        <v>2.9370023221517272E-2</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="13"/>
         <v>1.761116881086993E-2</v>
       </c>
     </row>
@@ -3776,26 +3793,26 @@
         <v>0.35571819134016225</v>
       </c>
       <c r="I23" s="4">
+        <f t="shared" si="5"/>
+        <v>4.5730238084371821E-2</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="6"/>
-        <v>4.5730238084371821E-2</v>
-      </c>
-      <c r="J23" s="4">
+        <v>1.7468378729140088E-2</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="7"/>
-        <v>1.7468378729140088E-2</v>
-      </c>
-      <c r="K23" s="4">
+        <v>2.8768515821191221E-2</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="8"/>
-        <v>2.8768515821191221E-2</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="9"/>
         <v>2.6696523067680188E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
         <v>7.2092633305672544</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="16">
         <f t="shared" si="3"/>
         <v>10.101596332730413</v>
       </c>
@@ -3804,19 +3821,19 @@
         <v>8.2220728568894579</v>
       </c>
       <c r="P23" s="4">
+        <f t="shared" si="9"/>
+        <v>4.4715433800266879E-2</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="10"/>
-        <v>4.4715433800266879E-2</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>1.7317560435621715E-2</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="11"/>
-        <v>1.7317560435621715E-2</v>
-      </c>
-      <c r="R23" s="4">
+        <v>2.836247121528146E-2</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="12"/>
-        <v>2.836247121528146E-2</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="13"/>
         <v>2.5902135569244929E-2</v>
       </c>
     </row>
@@ -3848,26 +3865,26 @@
         <v>0.35164835949204815</v>
       </c>
       <c r="I24" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6321580950013921E-2</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="6"/>
-        <v>3.6321580950013921E-2</v>
-      </c>
-      <c r="J24" s="4">
+        <v>2.4054729122833018E-2</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="7"/>
-        <v>2.4054729122833018E-2</v>
-      </c>
-      <c r="K24" s="4">
+        <v>3.5449370132260016E-2</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="8"/>
-        <v>3.5449370132260016E-2</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="9"/>
         <v>1.162323121728957E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
         <v>7.2449408325608777</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="16">
         <f t="shared" si="3"/>
         <v>10.125366304328537</v>
       </c>
@@ -3876,20 +3893,20 @@
         <v>8.2569083634213456</v>
       </c>
       <c r="P24" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5677501993623295E-2</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="10"/>
-        <v>3.5677501993623295E-2</v>
-      </c>
-      <c r="Q24" s="4">
+        <v>2.3769971598124329E-2</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="11"/>
-        <v>2.3769971598124329E-2</v>
-      </c>
-      <c r="R24" s="4">
+        <v>3.4835506531887717E-2</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="12"/>
-        <v>3.4835506531887717E-2</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1339825144863987E-2</v>
+        <v>1.1339825144863988E-2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -3920,26 +3937,26 @@
         <v>0.35693720685655539</v>
       </c>
       <c r="I25" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5379054517526338E-2</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="6"/>
-        <v>5.5379054517526338E-2</v>
-      </c>
-      <c r="J25" s="4">
+        <v>2.5380080421652851E-2</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="7"/>
-        <v>2.5380080421652851E-2</v>
-      </c>
-      <c r="K25" s="4">
+        <v>4.545685700645552E-2</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="8"/>
-        <v>4.545685700645552E-2</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="9"/>
         <v>2.6254124611707175E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
         <v>7.2988408283400386</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="16">
         <f t="shared" si="3"/>
         <v>10.150429658353275</v>
       </c>
@@ -3948,20 +3965,20 @@
         <v>8.3013623370393876</v>
       </c>
       <c r="P25" s="4">
+        <f t="shared" si="9"/>
+        <v>5.3899995779160825E-2</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="10"/>
-        <v>5.3899995779160825E-2</v>
-      </c>
-      <c r="Q25" s="4">
+        <v>2.5063354024737805E-2</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="11"/>
-        <v>2.5063354024737805E-2</v>
-      </c>
-      <c r="R25" s="4">
+        <v>4.4453973618042042E-2</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="12"/>
-        <v>4.4453973618042042E-2</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="13"/>
-        <v>2.5294011710392566E-2</v>
+        <v>2.5294011710392573E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -3992,26 +4009,26 @@
         <v>0.35945260694318032</v>
       </c>
       <c r="I26" s="4">
+        <f t="shared" si="5"/>
+        <v>4.0318953594145723E-2</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="6"/>
-        <v>4.0318953594145723E-2</v>
-      </c>
-      <c r="J26" s="4">
+        <v>1.4377726827096371E-2</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="7"/>
-        <v>1.4377726827096371E-2</v>
-      </c>
-      <c r="K26" s="4">
+        <v>4.7710578211218602E-2</v>
+      </c>
+      <c r="L26" s="5">
         <f t="shared" si="8"/>
-        <v>4.7710578211218602E-2</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="9"/>
         <v>1.5827750786774768E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
         <v>7.338368180622953</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="16">
         <f t="shared" si="3"/>
         <v>10.164705005820824</v>
       </c>
@@ -4020,20 +4037,20 @@
         <v>8.347969718968443</v>
       </c>
       <c r="P26" s="4">
+        <f t="shared" si="9"/>
+        <v>3.9527352282914485E-2</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="10"/>
-        <v>3.9527352282914485E-2</v>
-      </c>
-      <c r="Q26" s="4">
+        <v>1.4275347467549437E-2</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="11"/>
-        <v>1.4275347467549437E-2</v>
-      </c>
-      <c r="R26" s="4">
+        <v>4.6607381929055336E-2</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="12"/>
-        <v>4.6607381929055336E-2</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="13"/>
-        <v>1.5484972891951793E-2</v>
+        <v>1.5484972891951797E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -4064,26 +4081,26 @@
         <v>0.35572407356207753</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="5"/>
+        <v>3.2264334936939143E-2</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="6"/>
-        <v>3.2264334936939143E-2</v>
-      </c>
-      <c r="J27" s="4">
+        <v>4.9017720310200463E-3</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="7"/>
-        <v>4.9017720310200463E-3</v>
-      </c>
-      <c r="K27" s="4">
+        <v>4.5356962915254151E-2</v>
+      </c>
+      <c r="L27" s="5">
         <f t="shared" si="8"/>
-        <v>4.5356962915254151E-2</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="9"/>
         <v>1.3605228869878097E-2</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
         <v>7.3701229533892443</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="16">
         <f t="shared" si="3"/>
         <v>10.169594803282454</v>
       </c>
@@ -4092,19 +4109,19 @@
         <v>8.3923281373626537</v>
       </c>
       <c r="P27" s="4">
+        <f t="shared" si="9"/>
+        <v>3.1754772766291239E-2</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="10"/>
-        <v>3.1754772766291239E-2</v>
-      </c>
-      <c r="Q27" s="4">
+        <v>4.8897974616295414E-3</v>
+      </c>
+      <c r="R27" s="4">
         <f t="shared" si="11"/>
-        <v>4.8897974616295414E-3</v>
-      </c>
-      <c r="R27" s="4">
+        <v>4.435841839421073E-2</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="12"/>
-        <v>4.435841839421073E-2</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="13"/>
         <v>1.3457040244357021E-2</v>
       </c>
     </row>
@@ -4136,26 +4153,26 @@
         <v>0.35490652285630536</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="5"/>
+        <v>2.697834590500614E-2</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" si="6"/>
-        <v>2.697834590500614E-2</v>
-      </c>
-      <c r="J28" s="4">
+        <v>2.8738384902760039E-4</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="7"/>
-        <v>2.8738384902760039E-4</v>
-      </c>
-      <c r="K28" s="4">
+        <v>5.3067245551859488E-2</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="8"/>
-        <v>5.3067245551859488E-2</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="9"/>
         <v>7.9960920157281616E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
         <v>7.3967437993081253</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="16">
         <f t="shared" si="3"/>
         <v>10.169882145844653</v>
       </c>
@@ -4164,19 +4181,19 @@
         <v>8.4440352293984144</v>
       </c>
       <c r="P28" s="4">
+        <f t="shared" si="9"/>
+        <v>2.6620845918881031E-2</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="10"/>
-        <v>2.6620845918881031E-2</v>
-      </c>
-      <c r="Q28" s="4">
+        <v>2.8734256219919985E-4</v>
+      </c>
+      <c r="R28" s="4">
         <f t="shared" si="11"/>
-        <v>2.8734256219919985E-4</v>
-      </c>
-      <c r="R28" s="4">
+        <v>5.1707092035760738E-2</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="12"/>
-        <v>5.1707092035760738E-2</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="13"/>
         <v>8.1213406960590241E-3</v>
       </c>
     </row>
@@ -4208,26 +4225,26 @@
         <v>0.35649426444188709</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="5"/>
+        <v>4.498346074548687E-2</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="6"/>
-        <v>4.498346074548687E-2</v>
-      </c>
-      <c r="J29" s="4">
+        <v>1.3981995786247481E-3</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="7"/>
-        <v>1.3981995786247481E-3</v>
-      </c>
-      <c r="K29" s="4">
+        <v>5.7009599184036919E-2</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="8"/>
-        <v>5.7009599184036919E-2</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="9"/>
         <v>2.3945049797816729E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
         <v>7.4407448575618398</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="16">
         <f t="shared" si="3"/>
         <v>10.171279368852435</v>
       </c>
@@ -4236,19 +4253,19 @@
         <v>8.4994790177817361</v>
       </c>
       <c r="P29" s="4">
+        <f t="shared" si="9"/>
+        <v>4.4001058253714476E-2</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="10"/>
-        <v>4.4001058253714476E-2</v>
-      </c>
-      <c r="Q29" s="4">
+        <v>1.3972230077818892E-3</v>
+      </c>
+      <c r="R29" s="4">
         <f t="shared" si="11"/>
-        <v>1.3972230077818892E-3</v>
-      </c>
-      <c r="R29" s="4">
+        <v>5.5443788383321646E-2</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="12"/>
-        <v>5.5443788383321646E-2</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="13"/>
         <v>2.3521349137965268E-2</v>
       </c>
     </row>
@@ -4280,26 +4297,26 @@
         <v>0.35393410177784196</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6317670166823302E-2</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="6"/>
-        <v>3.6317670166823302E-2</v>
-      </c>
-      <c r="J30" s="4">
+        <v>6.885603350993641E-3</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="7"/>
-        <v>6.885603350993641E-3</v>
-      </c>
-      <c r="K30" s="4">
+        <v>6.2290102070168496E-2</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="8"/>
-        <v>6.2290102070168496E-2</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="9"/>
         <v>1.0749476436710745E-2</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
         <v>7.4764185858324774</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="16">
         <f t="shared" si="3"/>
         <v>10.178141374696795</v>
       </c>
@@ -4308,20 +4325,20 @@
         <v>8.5599060690896209</v>
       </c>
       <c r="P30" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5673728270637639E-2</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="10"/>
-        <v>3.5673728270637639E-2</v>
-      </c>
-      <c r="Q30" s="4">
+        <v>6.8620058443595866E-3</v>
+      </c>
+      <c r="R30" s="4">
         <f t="shared" si="11"/>
-        <v>6.8620058443595866E-3</v>
-      </c>
-      <c r="R30" s="4">
+        <v>6.0427051307884838E-2</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="12"/>
-        <v>6.0427051307884838E-2</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="13"/>
-        <v>1.0777000548280083E-2</v>
+        <v>1.0777000548280079E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -4352,26 +4369,26 @@
         <v>0.35668568206818596</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="5"/>
+        <v>4.6574419348719198E-2</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="6"/>
-        <v>4.6574419348719198E-2</v>
-      </c>
-      <c r="J31" s="4">
+        <v>1.0858043804494288E-2</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="7"/>
-        <v>1.0858043804494288E-2</v>
-      </c>
-      <c r="K31" s="4">
+        <v>6.5415390122745665E-2</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="8"/>
-        <v>6.5415390122745665E-2</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="9"/>
         <v>1.7707285944693056E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
         <v>7.521940958820263</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="16">
         <f t="shared" si="3"/>
         <v>10.18894089320932</v>
       </c>
@@ -4380,20 +4397,20 @@
         <v>8.6232708298800276</v>
       </c>
       <c r="P31" s="4">
+        <f t="shared" si="9"/>
+        <v>4.5522372987785609E-2</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="10"/>
-        <v>4.5522372987785609E-2</v>
-      </c>
-      <c r="Q31" s="4">
+        <v>1.0799518512525808E-2</v>
+      </c>
+      <c r="R31" s="4">
         <f t="shared" si="11"/>
-        <v>1.0799518512525808E-2</v>
-      </c>
-      <c r="R31" s="4">
+        <v>6.3364760790406649E-2</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="12"/>
-        <v>6.3364760790406649E-2</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="13"/>
-        <v>1.7416500345937273E-2</v>
+        <v>1.7416500345937277E-2</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -4424,26 +4441,26 @@
         <v>0.36343491160835706</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0433649631442368E-2</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="6"/>
-        <v>5.0433649631442368E-2</v>
-      </c>
-      <c r="J32" s="4">
+        <v>1.4469713199009249E-2</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="7"/>
-        <v>1.4469713199009249E-2</v>
-      </c>
-      <c r="K32" s="4">
+        <v>6.9185747528437869E-2</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="8"/>
-        <v>6.9185747528437869E-2</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="9"/>
         <v>1.798533313693609E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
         <v>7.5711440373778069</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="16">
         <f t="shared" si="3"/>
         <v>10.203306919128252</v>
       </c>
@@ -4452,20 +4469,20 @@
         <v>8.6901682050405498</v>
       </c>
       <c r="P32" s="4">
+        <f t="shared" si="9"/>
+        <v>4.9203078557543911E-2</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="10"/>
-        <v>4.9203078557543911E-2</v>
-      </c>
-      <c r="Q32" s="4">
+        <v>1.4366025918931769E-2</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="11"/>
-        <v>1.4366025918931769E-2</v>
-      </c>
-      <c r="R32" s="4">
+        <v>6.6897375160522188E-2</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="12"/>
-        <v>6.6897375160522188E-2</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="13"/>
-        <v>1.7638774151227447E-2</v>
+        <v>1.763877415122745E-2</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -4496,26 +4513,26 @@
         <v>0.36391702386091007</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="5"/>
+        <v>2.6280545596901295E-2</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="6"/>
-        <v>2.6280545596901295E-2</v>
-      </c>
-      <c r="J33" s="4">
+        <v>5.0644072568843956E-3</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="7"/>
-        <v>5.0644072568843956E-3</v>
-      </c>
-      <c r="K33" s="4">
+        <v>4.3288714914852866E-2</v>
+      </c>
+      <c r="L33" s="5">
         <f t="shared" si="8"/>
-        <v>4.3288714914852866E-2</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="9"/>
         <v>7.9592501509900271E-3</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
         <v>7.5970851830037951</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="16">
         <f t="shared" si="3"/>
         <v>10.20835854540859</v>
       </c>
@@ -4524,19 +4541,19 @@
         <v>8.7325461547527112</v>
       </c>
       <c r="P33" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5941145625988149E-2</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="10"/>
-        <v>2.5941145625988149E-2</v>
-      </c>
-      <c r="Q33" s="4">
+        <v>5.0516262803377288E-3</v>
+      </c>
+      <c r="R33" s="4">
         <f t="shared" si="11"/>
-        <v>5.0516262803377288E-3</v>
-      </c>
-      <c r="R33" s="4">
+        <v>4.2377949712161467E-2</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="12"/>
-        <v>4.2377949712161467E-2</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="13"/>
         <v>7.9577734521877521E-3</v>
       </c>
     </row>
@@ -4568,26 +4585,26 @@
         <v>0.34906285923213015</v>
       </c>
       <c r="I34" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.8086007689296255E-2</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="6"/>
-        <v>-2.8086007689296255E-2</v>
-      </c>
-      <c r="J34" s="4">
+        <v>-1.1419514173025114E-2</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="7"/>
-        <v>-1.1419514173025114E-2</v>
-      </c>
-      <c r="K34" s="4">
+        <v>1.5924539522547576E-2</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="8"/>
-        <v>1.5924539522547576E-2</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="9"/>
         <v>-2.7670708473596095E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
         <v>7.5685972192899902</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="16">
         <f t="shared" si="3"/>
         <v>10.196873327904587</v>
       </c>
@@ -4596,20 +4613,20 @@
         <v>8.7483452290272137</v>
       </c>
       <c r="P34" s="4">
+        <f t="shared" si="9"/>
+        <v>-2.8487963713804909E-2</v>
+      </c>
+      <c r="Q34" s="4">
         <f t="shared" si="10"/>
-        <v>-2.8487963713804909E-2</v>
-      </c>
-      <c r="Q34" s="4">
+        <v>-1.1485217504002776E-2</v>
+      </c>
+      <c r="R34" s="4">
         <f t="shared" si="11"/>
-        <v>-1.1485217504002776E-2</v>
-      </c>
-      <c r="R34" s="4">
+        <v>1.5799074274502445E-2</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="12"/>
-        <v>1.5799074274502445E-2</v>
-      </c>
-      <c r="S34" s="4">
-        <f t="shared" si="13"/>
-        <v>-2.7994497430218427E-2</v>
+        <v>-2.7994497430218424E-2</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -4640,26 +4657,26 @@
         <v>0.35333277535234242</v>
       </c>
       <c r="I35" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0399881843936827E-2</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="6"/>
-        <v>3.0399881843936827E-2</v>
-      </c>
-      <c r="J35" s="4">
+        <v>9.8064073499570803E-4</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="7"/>
-        <v>9.8064073499570803E-4</v>
-      </c>
-      <c r="K35" s="4">
+        <v>3.7858473642491175E-2</v>
+      </c>
+      <c r="L35" s="5">
         <f t="shared" si="8"/>
-        <v>3.7858473642491175E-2</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="9"/>
         <v>1.6512000922094788E-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
         <v>7.5985441809878438</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="16">
         <f t="shared" si="3"/>
         <v>10.197853488125572</v>
       </c>
@@ -4668,19 +4685,19 @@
         <v>8.7855046592366062</v>
       </c>
       <c r="P35" s="4">
+        <f t="shared" si="9"/>
+        <v>2.9946961697853602E-2</v>
+      </c>
+      <c r="Q35" s="4">
         <f t="shared" si="10"/>
-        <v>2.9946961697853602E-2</v>
-      </c>
-      <c r="Q35" s="4">
+        <v>9.8016022098512678E-4</v>
+      </c>
+      <c r="R35" s="4">
         <f t="shared" si="11"/>
-        <v>9.8016022098512678E-4</v>
-      </c>
-      <c r="R35" s="4">
+        <v>3.7159430209392497E-2</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="12"/>
-        <v>3.7159430209392497E-2</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="13"/>
         <v>1.6306326240612422E-2</v>
       </c>
     </row>
@@ -4712,26 +4729,26 @@
         <v>0.34994454347106863</v>
       </c>
       <c r="I36" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1614467879089281E-2</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="6"/>
-        <v>3.1614467879089281E-2</v>
-      </c>
-      <c r="J36" s="4">
+        <v>7.5319886014415527E-3</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="7"/>
-        <v>7.5319886014415527E-3</v>
-      </c>
-      <c r="K36" s="4">
+        <v>4.1961854611232807E-2</v>
+      </c>
+      <c r="L36" s="5">
         <f t="shared" si="8"/>
-        <v>4.1961854611232807E-2</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="9"/>
         <v>1.3018718356996558E-2</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
         <v>7.6296692006131641</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="16">
         <f t="shared" si="3"/>
         <v>10.205357252933133</v>
       </c>
@@ -4740,19 +4757,19 @@
         <v>8.8266099940389964</v>
       </c>
       <c r="P36" s="4">
+        <f t="shared" si="9"/>
+        <v>3.1125019625320327E-2</v>
+      </c>
+      <c r="Q36" s="4">
         <f t="shared" si="10"/>
-        <v>3.1125019625320327E-2</v>
-      </c>
-      <c r="Q36" s="4">
+        <v>7.5037648075610974E-3</v>
+      </c>
+      <c r="R36" s="4">
         <f t="shared" si="11"/>
-        <v>7.5037648075610974E-3</v>
-      </c>
-      <c r="R36" s="4">
+        <v>4.1105334802390203E-2</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="12"/>
-        <v>4.1105334802390203E-2</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" si="13"/>
         <v>1.2843661399382617E-2</v>
       </c>
     </row>
@@ -4784,26 +4801,26 @@
         <v>0.34463693099017428</v>
       </c>
       <c r="I37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4785978607334327E-2</v>
+      </c>
+      <c r="J37" s="4">
         <f t="shared" si="6"/>
-        <v>1.4785978607334327E-2</v>
-      </c>
-      <c r="J37" s="4">
+        <v>3.4013982704628187E-3</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="7"/>
-        <v>3.4013982704628187E-3</v>
-      </c>
-      <c r="K37" s="4">
+        <v>2.5354641339961459E-2</v>
+      </c>
+      <c r="L37" s="5">
         <f t="shared" si="8"/>
-        <v>2.5354641339961459E-2</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="9"/>
         <v>4.2690456340635959E-3</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
         <v>7.6443469323581912</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="16">
         <f t="shared" si="3"/>
         <v>10.20875287953263</v>
       </c>
@@ -4812,19 +4829,19 @@
         <v>8.8516485383392762</v>
       </c>
       <c r="P37" s="4">
+        <f t="shared" si="9"/>
+        <v>1.4677731745027067E-2</v>
+      </c>
+      <c r="Q37" s="4">
         <f t="shared" si="10"/>
-        <v>1.4677731745027067E-2</v>
-      </c>
-      <c r="Q37" s="4">
+        <v>3.3956265994969925E-3</v>
+      </c>
+      <c r="R37" s="4">
         <f t="shared" si="11"/>
-        <v>3.3956265994969925E-3</v>
-      </c>
-      <c r="R37" s="4">
+        <v>2.5038544300279852E-2</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="12"/>
-        <v>2.5038544300279852E-2</v>
-      </c>
-      <c r="S37" s="4">
-        <f t="shared" si="13"/>
         <v>4.272755824806072E-3</v>
       </c>
     </row>
@@ -4856,26 +4873,26 @@
         <v>0.34096987044148142</v>
       </c>
       <c r="I38" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3589594811193484E-2</v>
+      </c>
+      <c r="J38" s="4">
         <f t="shared" si="6"/>
-        <v>1.3589594811193484E-2</v>
-      </c>
-      <c r="J38" s="4">
+        <v>1.8349502757952774E-3</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="7"/>
-        <v>1.8349502757952774E-3</v>
-      </c>
-      <c r="K38" s="4">
+        <v>1.7379731962800626E-2</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="8"/>
-        <v>1.7379731962800626E-2</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="9"/>
         <v>6.7020635281872911E-3</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
         <v>7.6578450167533321</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="16">
         <f t="shared" si="3"/>
         <v>10.21058614834379</v>
       </c>
@@ -4884,19 +4901,19 @@
         <v>8.8688789701426121</v>
       </c>
       <c r="P38" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3498084395140886E-2</v>
+      </c>
+      <c r="Q38" s="4">
         <f t="shared" si="10"/>
-        <v>1.3498084395140886E-2</v>
-      </c>
-      <c r="Q38" s="4">
+        <v>1.8332688111595274E-3</v>
+      </c>
+      <c r="R38" s="4">
         <f t="shared" si="11"/>
-        <v>1.8332688111595274E-3</v>
-      </c>
-      <c r="R38" s="4">
+        <v>1.7230431803335833E-2</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="12"/>
-        <v>1.7230431803335833E-2</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" si="13"/>
         <v>6.6623411036346577E-3</v>
       </c>
     </row>
@@ -4928,26 +4945,26 @@
         <v>0.34398457505820407</v>
       </c>
       <c r="I39" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5385959691855522E-2</v>
+      </c>
+      <c r="J39" s="4">
         <f t="shared" si="6"/>
-        <v>1.5385959691855522E-2</v>
-      </c>
-      <c r="J39" s="4">
+        <v>5.2961621214071553E-3</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="7"/>
-        <v>5.2961621214071553E-3</v>
-      </c>
-      <c r="K39" s="4">
+        <v>1.0812953256992053E-2</v>
+      </c>
+      <c r="L39" s="5">
         <f t="shared" si="8"/>
-        <v>1.0812953256992053E-2</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="9"/>
         <v>8.8907294175922472E-3</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
         <v>7.6731138128221925</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="16">
         <f t="shared" si="3"/>
         <v>10.215868335120666</v>
       </c>
@@ -4956,20 +4973,20 @@
         <v>8.8796338814489459</v>
       </c>
       <c r="P39" s="4">
+        <f t="shared" si="9"/>
+        <v>1.5268796068860446E-2</v>
+      </c>
+      <c r="Q39" s="4">
         <f t="shared" si="10"/>
-        <v>1.5268796068860446E-2</v>
-      </c>
-      <c r="Q39" s="4">
+        <v>5.2821867768759745E-3</v>
+      </c>
+      <c r="R39" s="4">
         <f t="shared" si="11"/>
-        <v>5.2821867768759745E-3</v>
-      </c>
-      <c r="R39" s="4">
+        <v>1.0754911306333881E-2</v>
+      </c>
+      <c r="S39" s="4">
         <f t="shared" si="12"/>
-        <v>1.0754911306333881E-2</v>
-      </c>
-      <c r="S39" s="4">
-        <f t="shared" si="13"/>
-        <v>8.8008558679693941E-3</v>
+        <v>8.8008558679693923E-3</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -5000,26 +5017,26 @@
         <v>0.35063900088790562</v>
       </c>
       <c r="I40" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2638288371054527E-2</v>
+      </c>
+      <c r="J40" s="4">
         <f t="shared" si="6"/>
-        <v>2.2638288371054527E-2</v>
-      </c>
-      <c r="J40" s="4">
+        <v>2.0999871952001037E-3</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="7"/>
-        <v>2.0999871952001037E-3</v>
-      </c>
-      <c r="K40" s="4">
+        <v>8.0245985612792392E-3</v>
+      </c>
+      <c r="L40" s="5">
         <f t="shared" si="8"/>
-        <v>8.0245985612792392E-3</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="9"/>
         <v>1.8734242472484106E-2</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
         <v>7.6954996579628485</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="16">
         <f t="shared" si="3"/>
         <v>10.217966120424846</v>
       </c>
@@ -5028,19 +5045,19 @@
         <v>8.8876264541349688</v>
       </c>
       <c r="P40" s="4">
+        <f t="shared" si="9"/>
+        <v>2.2385845140656002E-2</v>
+      </c>
+      <c r="Q40" s="4">
         <f t="shared" si="10"/>
-        <v>2.2385845140656002E-2</v>
-      </c>
-      <c r="Q40" s="4">
+        <v>2.0977853041799222E-3</v>
+      </c>
+      <c r="R40" s="4">
         <f t="shared" si="11"/>
-        <v>2.0977853041799222E-3</v>
-      </c>
-      <c r="R40" s="4">
+        <v>7.9925726860228252E-3</v>
+      </c>
+      <c r="S40" s="4">
         <f t="shared" si="12"/>
-        <v>7.9925726860228252E-3</v>
-      </c>
-      <c r="S40" s="4">
-        <f t="shared" si="13"/>
         <v>1.8494171979903627E-2</v>
       </c>
     </row>
@@ -5072,26 +5089,26 @@
         <v>0.34709320724094267</v>
       </c>
       <c r="I41" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6237481987161795E-2</v>
+      </c>
+      <c r="J41" s="4">
         <f t="shared" si="6"/>
-        <v>1.6237481987161795E-2</v>
-      </c>
-      <c r="J41" s="4">
+        <v>6.4364442205258054E-3</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="7"/>
-        <v>6.4364442205258054E-3</v>
-      </c>
-      <c r="K41" s="4">
+        <v>2.2391363485095406E-2</v>
+      </c>
+      <c r="L41" s="5">
         <f t="shared" si="8"/>
-        <v>2.2391363485095406E-2</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="9"/>
         <v>5.1142043725551541E-3</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
         <v>7.7116067219190558</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="16">
         <f t="shared" si="3"/>
         <v>10.224381939194007</v>
       </c>
@@ -5100,20 +5117,20 @@
         <v>8.9097708114449379</v>
       </c>
       <c r="P41" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6107063956207313E-2</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="10"/>
-        <v>1.6107063956207313E-2</v>
-      </c>
-      <c r="Q41" s="4">
+        <v>6.4158187691614188E-3</v>
+      </c>
+      <c r="R41" s="4">
         <f t="shared" si="11"/>
-        <v>6.4158187691614188E-3</v>
-      </c>
-      <c r="R41" s="4">
+        <v>2.2144357309969109E-2</v>
+      </c>
+      <c r="S41" s="4">
         <f t="shared" si="12"/>
-        <v>2.2144357309969109E-2</v>
-      </c>
-      <c r="S41" s="4">
-        <f t="shared" si="13"/>
-        <v>5.0802599583654965E-3</v>
+        <v>5.0802599583654974E-3</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -5144,26 +5161,26 @@
         <v>0.34228479193746236</v>
       </c>
       <c r="I42" s="4">
+        <f t="shared" si="5"/>
+        <v>2.824948783172343E-2</v>
+      </c>
+      <c r="J42" s="4">
         <f t="shared" si="6"/>
-        <v>2.824948783172343E-2</v>
-      </c>
-      <c r="J42" s="4">
+        <v>1.1390347949737478E-2</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="7"/>
-        <v>1.1390347949737478E-2</v>
-      </c>
-      <c r="K42" s="4">
+        <v>3.2394538925364813E-2</v>
+      </c>
+      <c r="L42" s="5">
         <f t="shared" si="8"/>
-        <v>3.2394538925364813E-2</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="9"/>
         <v>1.1212193210040782E-2</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
         <v>7.7394645519502925</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="16">
         <f t="shared" si="3"/>
         <v>10.235707905555083</v>
       </c>
@@ -5172,20 +5189,20 @@
         <v>8.9416517106045497</v>
       </c>
       <c r="P42" s="4">
+        <f t="shared" si="9"/>
+        <v>2.7857830031236652E-2</v>
+      </c>
+      <c r="Q42" s="4">
         <f t="shared" si="10"/>
-        <v>2.7857830031236652E-2</v>
-      </c>
-      <c r="Q42" s="4">
+        <v>1.1325966361075857E-2</v>
+      </c>
+      <c r="R42" s="4">
         <f t="shared" si="11"/>
-        <v>1.1325966361075857E-2</v>
-      </c>
-      <c r="R42" s="4">
+        <v>3.1880899159611786E-2</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="12"/>
-        <v>3.1880899159611786E-2</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1029972755541228E-2</v>
+        <v>1.1029972755541224E-2</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -5216,26 +5233,26 @@
         <v>0.34283668725082572</v>
       </c>
       <c r="I43" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8757962809316417E-2</v>
+      </c>
+      <c r="J43" s="4">
         <f t="shared" si="6"/>
-        <v>2.8757962809316417E-2</v>
-      </c>
-      <c r="J43" s="4">
+        <v>9.9278366784787409E-3</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="7"/>
-        <v>9.9278366784787409E-3</v>
-      </c>
-      <c r="K43" s="4">
+        <v>3.3023836797660522E-2</v>
+      </c>
+      <c r="L43" s="5">
         <f t="shared" si="8"/>
-        <v>3.3023836797660522E-2</v>
-      </c>
-      <c r="L43" s="5">
-        <f t="shared" si="9"/>
         <v>1.2262724474097937E-2</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
         <v>7.7678167652058505</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="16">
         <f t="shared" si="3"/>
         <v>10.245586785022473</v>
       </c>
@@ -5244,20 +5261,20 @@
         <v>8.9741419757881733</v>
       </c>
       <c r="P43" s="4">
+        <f t="shared" si="9"/>
+        <v>2.8352213255558034E-2</v>
+      </c>
+      <c r="Q43" s="4">
         <f t="shared" si="10"/>
-        <v>2.8352213255558034E-2</v>
-      </c>
-      <c r="Q43" s="4">
+        <v>9.8788794673900782E-3</v>
+      </c>
+      <c r="R43" s="4">
         <f t="shared" si="11"/>
-        <v>9.8788794673900782E-3</v>
-      </c>
-      <c r="R43" s="4">
+        <v>3.2490265183623634E-2</v>
+      </c>
+      <c r="S43" s="4">
         <f t="shared" si="12"/>
-        <v>3.2490265183623634E-2</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" si="13"/>
-        <v>1.2065414742665372E-2</v>
+        <v>1.2065414742665368E-2</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -5288,26 +5305,26 @@
         <v>0.35204491238433971</v>
       </c>
       <c r="I44" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1451280536672011E-2</v>
+      </c>
+      <c r="J44" s="4">
         <f t="shared" si="6"/>
-        <v>3.1451280536672011E-2</v>
-      </c>
-      <c r="J44" s="4">
+        <v>1.1985936501171857E-2</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="7"/>
-        <v>1.1985936501171857E-2</v>
-      </c>
-      <c r="K44" s="4">
+        <v>3.0322913183996381E-2</v>
+      </c>
+      <c r="L44" s="5">
         <f t="shared" si="8"/>
-        <v>3.0322913183996381E-2</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="9"/>
         <v>1.466501307071146E-2</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
         <v>7.798783585953716</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="16">
         <f t="shared" si="3"/>
         <v>10.257501459053213</v>
       </c>
@@ -5316,20 +5333,20 @@
         <v>9.0040142368419982</v>
       </c>
       <c r="P44" s="4">
+        <f t="shared" si="9"/>
+        <v>3.0966820747865498E-2</v>
+      </c>
+      <c r="Q44" s="4">
         <f t="shared" si="10"/>
-        <v>3.0966820747865498E-2</v>
-      </c>
-      <c r="Q44" s="4">
+        <v>1.1914674030739647E-2</v>
+      </c>
+      <c r="R44" s="4">
         <f t="shared" si="11"/>
-        <v>1.1914674030739647E-2</v>
-      </c>
-      <c r="R44" s="4">
+        <v>2.98722610538249E-2</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="12"/>
-        <v>2.98722610538249E-2</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" si="13"/>
-        <v>1.4375537493224575E-2</v>
+        <v>1.4375537493224571E-2</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -5360,26 +5377,26 @@
         <v>0.35072688615913494</v>
       </c>
       <c r="I45" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.9147226717699888E-2</v>
+      </c>
+      <c r="J45" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9147226717699888E-2</v>
-      </c>
-      <c r="J45" s="4">
+        <v>-1.6844764962886671E-4</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="7"/>
-        <v>-1.6844764962886671E-4</v>
-      </c>
-      <c r="K45" s="4">
+        <v>3.5494526146994332E-2</v>
+      </c>
+      <c r="L45" s="5">
         <f t="shared" si="8"/>
-        <v>3.5494526146994332E-2</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="9"/>
         <v>-6.1509258591009322E-2</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
         <v>7.748387545000516</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="16">
         <f t="shared" si="3"/>
         <v>10.257332997214686</v>
       </c>
@@ -5388,20 +5405,20 @@
         <v>9.0388933524883779</v>
       </c>
       <c r="P45" s="4">
+        <f t="shared" si="9"/>
+        <v>-5.039604095320005E-2</v>
+      </c>
+      <c r="Q45" s="4">
         <f t="shared" si="10"/>
-        <v>-5.039604095320005E-2</v>
-      </c>
-      <c r="Q45" s="4">
+        <v>-1.684618385269232E-4</v>
+      </c>
+      <c r="R45" s="4">
         <f t="shared" si="11"/>
-        <v>-1.684618385269232E-4</v>
-      </c>
-      <c r="R45" s="4">
+        <v>3.4879115646379688E-2</v>
+      </c>
+      <c r="S45" s="4">
         <f t="shared" si="12"/>
-        <v>3.4879115646379688E-2</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="13"/>
-        <v>-6.2542224502026594E-2</v>
+        <v>-6.254222450202658E-2</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -5432,26 +5449,26 @@
         <v>0.35372712238191806</v>
       </c>
       <c r="I46" s="4">
+        <f t="shared" si="5"/>
+        <v>7.9507919469573363E-2</v>
+      </c>
+      <c r="J46" s="4">
         <f t="shared" si="6"/>
-        <v>7.9507919469573363E-2</v>
-      </c>
-      <c r="J46" s="4">
+        <v>2.8142516680881746E-2</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="7"/>
-        <v>2.8142516680881746E-2</v>
-      </c>
-      <c r="K46" s="4">
+        <v>8.0615480015369556E-2</v>
+      </c>
+      <c r="L46" s="5">
         <f t="shared" si="8"/>
-        <v>8.0615480015369556E-2</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="9"/>
         <v>3.6532089025730088E-2</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
         <v>7.8248928521849352</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="16">
         <f t="shared" si="3"/>
         <v>10.28508678954231</v>
       </c>
@@ -5460,20 +5477,20 @@
         <v>9.1164241202026144</v>
       </c>
       <c r="P46" s="4">
+        <f t="shared" si="9"/>
+        <v>7.650530718441928E-2</v>
+      </c>
+      <c r="Q46" s="4">
         <f t="shared" si="10"/>
-        <v>7.650530718441928E-2</v>
-      </c>
-      <c r="Q46" s="4">
+        <v>2.7753792327624538E-2</v>
+      </c>
+      <c r="R46" s="4">
         <f t="shared" si="11"/>
-        <v>2.7753792327624538E-2</v>
-      </c>
-      <c r="R46" s="4">
+        <v>7.7530767714236504E-2</v>
+      </c>
+      <c r="S46" s="4">
         <f t="shared" si="12"/>
-        <v>7.7530767714236504E-2</v>
-      </c>
-      <c r="S46" s="4">
-        <f t="shared" si="13"/>
-        <v>3.4820354188837208E-2</v>
+        <v>3.4820354188837201E-2</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5504,26 +5521,26 @@
         <v>0.34061904624772454</v>
       </c>
       <c r="I47" s="4">
+        <f t="shared" si="5"/>
+        <v>5.4743221542709053E-2</v>
+      </c>
+      <c r="J47" s="4">
         <f t="shared" si="6"/>
-        <v>5.4743221542709053E-2</v>
-      </c>
-      <c r="J47" s="4">
+        <v>2.6457284287787042E-2</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="7"/>
-        <v>2.6457284287787042E-2</v>
-      </c>
-      <c r="K47" s="4">
+        <v>7.6202575028093467E-2</v>
+      </c>
+      <c r="L47" s="5">
         <f t="shared" si="8"/>
-        <v>7.6202575028093467E-2</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="9"/>
         <v>1.4936731276129923E-2</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
         <v>7.8781901975857034</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="16">
         <f t="shared" si="3"/>
         <v>10.311200133184771</v>
       </c>
@@ -5532,20 +5549,20 @@
         <v>9.1898628309769794</v>
       </c>
       <c r="P47" s="4">
+        <f t="shared" si="9"/>
+        <v>5.3297345400768137E-2</v>
+      </c>
+      <c r="Q47" s="4">
         <f t="shared" si="10"/>
-        <v>5.3297345400768137E-2</v>
-      </c>
-      <c r="Q47" s="4">
+        <v>2.6113343642460762E-2</v>
+      </c>
+      <c r="R47" s="4">
         <f t="shared" si="11"/>
-        <v>2.6113343642460762E-2</v>
-      </c>
-      <c r="R47" s="4">
+        <v>7.3438710774365035E-2</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="12"/>
-        <v>7.3438710774365035E-2</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="13"/>
-        <v>1.4612333563757306E-2</v>
+        <v>1.4612333563757303E-2</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
